--- a/ImageMagickSharp/ImageMagickCommands.xlsx
+++ b/ImageMagickSharp/ImageMagickCommands.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRepositoryGit\ImageMagickSharp\ImageMagickSharp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRepository\ImageMagickSharp\ImageMagickSharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$J$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$5:$J$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$5:$E$558</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="573">
   <si>
     <t>ClearMagickWand</t>
   </si>
@@ -1728,7 +1730,25 @@
     <t>Class Implemented</t>
   </si>
   <si>
-    <t>Interop imported</t>
+    <t>Interop implemented</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ImageMagick Group</t>
+  </si>
+  <si>
+    <t>Visual Studio Class</t>
+  </si>
+  <si>
+    <t>VS Type</t>
+  </si>
+  <si>
+    <t>Propertie</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1828,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1838,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,10 +1881,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1867,14 +1895,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Dev Class" xfId="2"/>
+    <cellStyle name="Dev Interop" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2153,51 +2196,6509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E558"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E559" sqref="E559"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E26" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E29" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>31</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
+        <v>45</v>
+      </c>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
+        <v>46</v>
+      </c>
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
+        <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
+        <v>53</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>58</v>
+      </c>
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
+        <v>59</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
+        <v>61</v>
+      </c>
+      <c r="B66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>63</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
+        <v>64</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
+        <v>66</v>
+      </c>
+      <c r="B71" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
+        <v>67</v>
+      </c>
+      <c r="B72" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
+        <v>69</v>
+      </c>
+      <c r="B74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
+        <v>72</v>
+      </c>
+      <c r="B77" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
+        <v>73</v>
+      </c>
+      <c r="B78" t="s">
+        <v>94</v>
+      </c>
+      <c r="C78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>75</v>
+      </c>
+      <c r="B80" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
+        <v>76</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
+        <v>77</v>
+      </c>
+      <c r="B82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
+        <v>94</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
+        <v>79</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
+        <v>80</v>
+      </c>
+      <c r="B85" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="C86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
+        <v>82</v>
+      </c>
+      <c r="B87" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>94</v>
+      </c>
+      <c r="C88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
+        <v>84</v>
+      </c>
+      <c r="B89" t="s">
+        <v>94</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
+        <v>85</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
+        <v>86</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>87</v>
+      </c>
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
+        <v>88</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>90</v>
+      </c>
+      <c r="B95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C95" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
+        <v>91</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>92</v>
+      </c>
+      <c r="B97" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
+        <v>93</v>
+      </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" s="3" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
+        <v>94</v>
+      </c>
+      <c r="B99" t="s">
+        <v>356</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
+        <v>95</v>
+      </c>
+      <c r="B100" t="s">
+        <v>356</v>
+      </c>
+      <c r="C100" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>96</v>
+      </c>
+      <c r="B101" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
+        <v>97</v>
+      </c>
+      <c r="B102" t="s">
+        <v>356</v>
+      </c>
+      <c r="C102" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>356</v>
+      </c>
+      <c r="C103" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>99</v>
+      </c>
+      <c r="B104" t="s">
+        <v>356</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
+        <v>100</v>
+      </c>
+      <c r="B105" t="s">
+        <v>356</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>101</v>
+      </c>
+      <c r="B106" t="s">
+        <v>356</v>
+      </c>
+      <c r="C106" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>356</v>
+      </c>
+      <c r="C107" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
+        <v>103</v>
+      </c>
+      <c r="B108" t="s">
+        <v>356</v>
+      </c>
+      <c r="C108" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>356</v>
+      </c>
+      <c r="C109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>105</v>
+      </c>
+      <c r="B110" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
+        <v>106</v>
+      </c>
+      <c r="B111" t="s">
+        <v>356</v>
+      </c>
+      <c r="C111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>356</v>
+      </c>
+      <c r="C112" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
+        <v>108</v>
+      </c>
+      <c r="B113" t="s">
+        <v>356</v>
+      </c>
+      <c r="C113" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
+        <v>111</v>
+      </c>
+      <c r="B116" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
+        <v>112</v>
+      </c>
+      <c r="B117" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
+        <v>113</v>
+      </c>
+      <c r="B118" t="s">
+        <v>356</v>
+      </c>
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
+        <v>114</v>
+      </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
+        <v>115</v>
+      </c>
+      <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
+        <v>116</v>
+      </c>
+      <c r="B121" t="s">
+        <v>356</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
+        <v>117</v>
+      </c>
+      <c r="B122" t="s">
+        <v>356</v>
+      </c>
+      <c r="C122" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>356</v>
+      </c>
+      <c r="C123" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
+        <v>119</v>
+      </c>
+      <c r="B124" t="s">
+        <v>356</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
+        <v>121</v>
+      </c>
+      <c r="B126" t="s">
+        <v>356</v>
+      </c>
+      <c r="C126" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
+        <v>122</v>
+      </c>
+      <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
+        <v>123</v>
+      </c>
+      <c r="B128" t="s">
+        <v>356</v>
+      </c>
+      <c r="C128" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="14">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>356</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14">
+        <v>125</v>
+      </c>
+      <c r="B130" t="s">
+        <v>356</v>
+      </c>
+      <c r="C130" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="14">
+        <v>126</v>
+      </c>
+      <c r="B131" t="s">
+        <v>356</v>
+      </c>
+      <c r="C131" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14">
+        <v>127</v>
+      </c>
+      <c r="B132" t="s">
+        <v>356</v>
+      </c>
+      <c r="C132" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="14">
+        <v>128</v>
+      </c>
+      <c r="B133" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14">
+        <v>129</v>
+      </c>
+      <c r="B134" t="s">
+        <v>356</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="14">
+        <v>130</v>
+      </c>
+      <c r="B135" t="s">
+        <v>356</v>
+      </c>
+      <c r="C135" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14">
+        <v>131</v>
+      </c>
+      <c r="B136" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="14">
+        <v>132</v>
+      </c>
+      <c r="B137" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14">
+        <v>133</v>
+      </c>
+      <c r="B138" t="s">
+        <v>356</v>
+      </c>
+      <c r="C138" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="14">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>356</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14">
+        <v>135</v>
+      </c>
+      <c r="B140" t="s">
+        <v>356</v>
+      </c>
+      <c r="C140" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="14">
+        <v>136</v>
+      </c>
+      <c r="B141" t="s">
+        <v>356</v>
+      </c>
+      <c r="C141" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="14">
+        <v>137</v>
+      </c>
+      <c r="B142" t="s">
+        <v>356</v>
+      </c>
+      <c r="C142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14">
+        <v>138</v>
+      </c>
+      <c r="B143" t="s">
+        <v>356</v>
+      </c>
+      <c r="C143" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="14">
+        <v>139</v>
+      </c>
+      <c r="B144" t="s">
+        <v>356</v>
+      </c>
+      <c r="C144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14">
+        <v>140</v>
+      </c>
+      <c r="B145" t="s">
+        <v>356</v>
+      </c>
+      <c r="C145" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="14">
+        <v>141</v>
+      </c>
+      <c r="B146" t="s">
+        <v>356</v>
+      </c>
+      <c r="C146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="14">
+        <v>142</v>
+      </c>
+      <c r="B147" t="s">
+        <v>356</v>
+      </c>
+      <c r="C147" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="14">
+        <v>143</v>
+      </c>
+      <c r="B148" t="s">
+        <v>356</v>
+      </c>
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14">
+        <v>144</v>
+      </c>
+      <c r="B149" t="s">
+        <v>356</v>
+      </c>
+      <c r="C149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="14">
+        <v>145</v>
+      </c>
+      <c r="B150" t="s">
+        <v>356</v>
+      </c>
+      <c r="C150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="14">
+        <v>146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>356</v>
+      </c>
+      <c r="C151" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="14">
+        <v>147</v>
+      </c>
+      <c r="B152" t="s">
+        <v>356</v>
+      </c>
+      <c r="C152" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="14">
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>356</v>
+      </c>
+      <c r="C153" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14">
+        <v>149</v>
+      </c>
+      <c r="B154" t="s">
+        <v>356</v>
+      </c>
+      <c r="C154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="14">
+        <v>150</v>
+      </c>
+      <c r="B155" t="s">
+        <v>356</v>
+      </c>
+      <c r="C155" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="14">
+        <v>151</v>
+      </c>
+      <c r="B156" t="s">
+        <v>356</v>
+      </c>
+      <c r="C156" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14">
+        <v>152</v>
+      </c>
+      <c r="B157" t="s">
+        <v>356</v>
+      </c>
+      <c r="C157" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14">
+        <v>153</v>
+      </c>
+      <c r="B158" t="s">
+        <v>356</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="14">
+        <v>154</v>
+      </c>
+      <c r="B159" t="s">
+        <v>356</v>
+      </c>
+      <c r="C159" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14">
+        <v>155</v>
+      </c>
+      <c r="B160" t="s">
+        <v>356</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14">
+        <v>156</v>
+      </c>
+      <c r="B161" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14">
+        <v>157</v>
+      </c>
+      <c r="B162" t="s">
+        <v>356</v>
+      </c>
+      <c r="C162" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="14">
+        <v>158</v>
+      </c>
+      <c r="B163" t="s">
+        <v>356</v>
+      </c>
+      <c r="C163" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="14">
+        <v>159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>356</v>
+      </c>
+      <c r="C164" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14">
+        <v>160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>356</v>
+      </c>
+      <c r="C165" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14">
+        <v>161</v>
+      </c>
+      <c r="B166" t="s">
+        <v>356</v>
+      </c>
+      <c r="C166" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="14">
+        <v>162</v>
+      </c>
+      <c r="B167" t="s">
+        <v>356</v>
+      </c>
+      <c r="C167" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="14">
+        <v>163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>356</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14">
+        <v>164</v>
+      </c>
+      <c r="B169" t="s">
+        <v>356</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="14">
+        <v>165</v>
+      </c>
+      <c r="B170" t="s">
+        <v>356</v>
+      </c>
+      <c r="C170" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="14">
+        <v>166</v>
+      </c>
+      <c r="B171" t="s">
+        <v>356</v>
+      </c>
+      <c r="C171" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14">
+        <v>167</v>
+      </c>
+      <c r="B172" t="s">
+        <v>356</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D172" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="14">
+        <v>168</v>
+      </c>
+      <c r="B173" t="s">
+        <v>356</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="14">
+        <v>169</v>
+      </c>
+      <c r="B174" t="s">
+        <v>356</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="14">
+        <v>170</v>
+      </c>
+      <c r="B175" t="s">
+        <v>356</v>
+      </c>
+      <c r="C175" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="14">
+        <v>171</v>
+      </c>
+      <c r="B176" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="14">
+        <v>172</v>
+      </c>
+      <c r="B177" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="14">
+        <v>173</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="14">
+        <v>174</v>
+      </c>
+      <c r="B179" t="s">
+        <v>356</v>
+      </c>
+      <c r="C179" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="14">
+        <v>175</v>
+      </c>
+      <c r="B180" t="s">
+        <v>356</v>
+      </c>
+      <c r="C180" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14">
+        <v>176</v>
+      </c>
+      <c r="B181" t="s">
+        <v>356</v>
+      </c>
+      <c r="C181" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="14">
+        <v>177</v>
+      </c>
+      <c r="B182" t="s">
+        <v>356</v>
+      </c>
+      <c r="C182" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14">
+        <v>178</v>
+      </c>
+      <c r="B183" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="14">
+        <v>179</v>
+      </c>
+      <c r="B184" t="s">
+        <v>356</v>
+      </c>
+      <c r="C184" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14">
+        <v>180</v>
+      </c>
+      <c r="B185" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="14">
+        <v>181</v>
+      </c>
+      <c r="B186" t="s">
+        <v>356</v>
+      </c>
+      <c r="C186" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14">
+        <v>182</v>
+      </c>
+      <c r="B187" t="s">
+        <v>356</v>
+      </c>
+      <c r="C187" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="14">
+        <v>183</v>
+      </c>
+      <c r="B188" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="14">
+        <v>184</v>
+      </c>
+      <c r="B189" t="s">
+        <v>356</v>
+      </c>
+      <c r="C189" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="14">
+        <v>185</v>
+      </c>
+      <c r="B190" t="s">
+        <v>356</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="14">
+        <v>186</v>
+      </c>
+      <c r="B191" t="s">
+        <v>356</v>
+      </c>
+      <c r="C191" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="14">
+        <v>187</v>
+      </c>
+      <c r="B192" t="s">
+        <v>356</v>
+      </c>
+      <c r="C192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14">
+        <v>188</v>
+      </c>
+      <c r="B193" t="s">
+        <v>356</v>
+      </c>
+      <c r="C193" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="14">
+        <v>189</v>
+      </c>
+      <c r="B194" t="s">
+        <v>356</v>
+      </c>
+      <c r="C194" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14">
+        <v>190</v>
+      </c>
+      <c r="B195" t="s">
+        <v>356</v>
+      </c>
+      <c r="C195" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="14">
+        <v>191</v>
+      </c>
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14">
+        <v>192</v>
+      </c>
+      <c r="B197" t="s">
+        <v>356</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="14">
+        <v>193</v>
+      </c>
+      <c r="B198" t="s">
+        <v>356</v>
+      </c>
+      <c r="C198" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14">
+        <v>194</v>
+      </c>
+      <c r="B199" t="s">
+        <v>356</v>
+      </c>
+      <c r="C199" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="14">
+        <v>195</v>
+      </c>
+      <c r="B200" t="s">
+        <v>356</v>
+      </c>
+      <c r="C200" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="14">
+        <v>196</v>
+      </c>
+      <c r="B201" t="s">
+        <v>356</v>
+      </c>
+      <c r="C201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="14">
+        <v>197</v>
+      </c>
+      <c r="B202" t="s">
+        <v>356</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14">
+        <v>198</v>
+      </c>
+      <c r="B203" t="s">
+        <v>356</v>
+      </c>
+      <c r="C203" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="14">
+        <v>199</v>
+      </c>
+      <c r="B204" t="s">
+        <v>356</v>
+      </c>
+      <c r="C204" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="14">
+        <v>200</v>
+      </c>
+      <c r="B205" t="s">
+        <v>356</v>
+      </c>
+      <c r="C205" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14">
+        <v>201</v>
+      </c>
+      <c r="B206" t="s">
+        <v>356</v>
+      </c>
+      <c r="C206" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="14">
+        <v>202</v>
+      </c>
+      <c r="B207" t="s">
+        <v>356</v>
+      </c>
+      <c r="C207" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14">
+        <v>203</v>
+      </c>
+      <c r="B208" t="s">
+        <v>356</v>
+      </c>
+      <c r="C208" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="14">
+        <v>204</v>
+      </c>
+      <c r="B209" t="s">
+        <v>356</v>
+      </c>
+      <c r="C209" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="14">
+        <v>205</v>
+      </c>
+      <c r="B210" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14">
+        <v>206</v>
+      </c>
+      <c r="B211" t="s">
+        <v>356</v>
+      </c>
+      <c r="C211" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="14">
+        <v>207</v>
+      </c>
+      <c r="B212" t="s">
+        <v>356</v>
+      </c>
+      <c r="C212" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="14">
+        <v>208</v>
+      </c>
+      <c r="B213" t="s">
+        <v>356</v>
+      </c>
+      <c r="C213" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="14">
+        <v>209</v>
+      </c>
+      <c r="B214" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="14">
+        <v>210</v>
+      </c>
+      <c r="B215" t="s">
+        <v>356</v>
+      </c>
+      <c r="C215" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="14">
+        <v>211</v>
+      </c>
+      <c r="B216" t="s">
+        <v>356</v>
+      </c>
+      <c r="C216" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="14">
+        <v>212</v>
+      </c>
+      <c r="B217" t="s">
+        <v>356</v>
+      </c>
+      <c r="C217" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="14">
+        <v>213</v>
+      </c>
+      <c r="B218" t="s">
+        <v>356</v>
+      </c>
+      <c r="C218" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="14">
+        <v>214</v>
+      </c>
+      <c r="B219" t="s">
+        <v>356</v>
+      </c>
+      <c r="C219" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="14">
+        <v>215</v>
+      </c>
+      <c r="B220" t="s">
+        <v>356</v>
+      </c>
+      <c r="C220" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="14">
+        <v>216</v>
+      </c>
+      <c r="B221" t="s">
+        <v>356</v>
+      </c>
+      <c r="C221" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="14">
+        <v>217</v>
+      </c>
+      <c r="B222" t="s">
+        <v>356</v>
+      </c>
+      <c r="C222" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="14">
+        <v>218</v>
+      </c>
+      <c r="B223" t="s">
+        <v>356</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="14">
+        <v>219</v>
+      </c>
+      <c r="B224" t="s">
+        <v>356</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="14">
+        <v>220</v>
+      </c>
+      <c r="B225" t="s">
+        <v>356</v>
+      </c>
+      <c r="C225" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="14">
+        <v>221</v>
+      </c>
+      <c r="B226" t="s">
+        <v>356</v>
+      </c>
+      <c r="C226" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="14">
+        <v>222</v>
+      </c>
+      <c r="B227" t="s">
+        <v>356</v>
+      </c>
+      <c r="C227" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="14">
+        <v>223</v>
+      </c>
+      <c r="B228" t="s">
+        <v>356</v>
+      </c>
+      <c r="C228" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="14">
+        <v>224</v>
+      </c>
+      <c r="B229" t="s">
+        <v>356</v>
+      </c>
+      <c r="C229" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="14">
+        <v>225</v>
+      </c>
+      <c r="B230" t="s">
+        <v>356</v>
+      </c>
+      <c r="C230" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="14">
+        <v>226</v>
+      </c>
+      <c r="B231" t="s">
+        <v>356</v>
+      </c>
+      <c r="C231" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="14">
+        <v>227</v>
+      </c>
+      <c r="B232" t="s">
+        <v>356</v>
+      </c>
+      <c r="C232" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="14">
+        <v>228</v>
+      </c>
+      <c r="B233" t="s">
+        <v>356</v>
+      </c>
+      <c r="C233" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="14">
+        <v>229</v>
+      </c>
+      <c r="B234" t="s">
+        <v>356</v>
+      </c>
+      <c r="C234" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="14">
+        <v>230</v>
+      </c>
+      <c r="B235" t="s">
+        <v>356</v>
+      </c>
+      <c r="C235" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="14">
+        <v>231</v>
+      </c>
+      <c r="B236" t="s">
+        <v>356</v>
+      </c>
+      <c r="C236" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="14">
+        <v>232</v>
+      </c>
+      <c r="B237" t="s">
+        <v>356</v>
+      </c>
+      <c r="C237" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="14">
+        <v>233</v>
+      </c>
+      <c r="B238" t="s">
+        <v>356</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="14">
+        <v>234</v>
+      </c>
+      <c r="B239" t="s">
+        <v>356</v>
+      </c>
+      <c r="C239" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="14">
+        <v>235</v>
+      </c>
+      <c r="B240" t="s">
+        <v>356</v>
+      </c>
+      <c r="C240" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="14">
+        <v>236</v>
+      </c>
+      <c r="B241" t="s">
+        <v>356</v>
+      </c>
+      <c r="C241" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="14">
+        <v>237</v>
+      </c>
+      <c r="B242" t="s">
+        <v>356</v>
+      </c>
+      <c r="C242" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="14">
+        <v>238</v>
+      </c>
+      <c r="B243" t="s">
+        <v>356</v>
+      </c>
+      <c r="C243" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="14">
+        <v>239</v>
+      </c>
+      <c r="B244" t="s">
+        <v>356</v>
+      </c>
+      <c r="C244" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="14">
+        <v>240</v>
+      </c>
+      <c r="B245" t="s">
+        <v>356</v>
+      </c>
+      <c r="C245" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="14">
+        <v>241</v>
+      </c>
+      <c r="B246" t="s">
+        <v>356</v>
+      </c>
+      <c r="C246" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="14">
+        <v>242</v>
+      </c>
+      <c r="B247" t="s">
+        <v>356</v>
+      </c>
+      <c r="C247" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="14">
+        <v>243</v>
+      </c>
+      <c r="B248" t="s">
+        <v>356</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="14">
+        <v>244</v>
+      </c>
+      <c r="B249" t="s">
+        <v>356</v>
+      </c>
+      <c r="C249" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="14">
+        <v>245</v>
+      </c>
+      <c r="B250" t="s">
+        <v>356</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="14">
+        <v>246</v>
+      </c>
+      <c r="B251" t="s">
+        <v>356</v>
+      </c>
+      <c r="C251" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="14">
+        <v>247</v>
+      </c>
+      <c r="B252" t="s">
+        <v>356</v>
+      </c>
+      <c r="C252" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="14">
+        <v>248</v>
+      </c>
+      <c r="B253" t="s">
+        <v>356</v>
+      </c>
+      <c r="C253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="14">
+        <v>249</v>
+      </c>
+      <c r="B254" t="s">
+        <v>356</v>
+      </c>
+      <c r="C254" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="14">
+        <v>250</v>
+      </c>
+      <c r="B255" t="s">
+        <v>356</v>
+      </c>
+      <c r="C255" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="14">
+        <v>251</v>
+      </c>
+      <c r="B256" t="s">
+        <v>356</v>
+      </c>
+      <c r="C256" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="14">
+        <v>252</v>
+      </c>
+      <c r="B257" t="s">
+        <v>356</v>
+      </c>
+      <c r="C257" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="14">
+        <v>253</v>
+      </c>
+      <c r="B258" t="s">
+        <v>356</v>
+      </c>
+      <c r="C258" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="14">
+        <v>254</v>
+      </c>
+      <c r="B259" t="s">
+        <v>356</v>
+      </c>
+      <c r="C259" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="14">
+        <v>255</v>
+      </c>
+      <c r="B260" t="s">
+        <v>356</v>
+      </c>
+      <c r="C260" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="14">
+        <v>256</v>
+      </c>
+      <c r="B261" t="s">
+        <v>356</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="14">
+        <v>257</v>
+      </c>
+      <c r="B262" t="s">
+        <v>356</v>
+      </c>
+      <c r="C262" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="14">
+        <v>258</v>
+      </c>
+      <c r="B263" t="s">
+        <v>356</v>
+      </c>
+      <c r="C263" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="14">
+        <v>259</v>
+      </c>
+      <c r="B264" t="s">
+        <v>356</v>
+      </c>
+      <c r="C264" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="14">
+        <v>260</v>
+      </c>
+      <c r="B265" t="s">
+        <v>356</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="14">
+        <v>261</v>
+      </c>
+      <c r="B266" t="s">
+        <v>356</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="14">
+        <v>262</v>
+      </c>
+      <c r="B267" t="s">
+        <v>356</v>
+      </c>
+      <c r="C267" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="14">
+        <v>263</v>
+      </c>
+      <c r="B268" t="s">
+        <v>356</v>
+      </c>
+      <c r="C268" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="14">
+        <v>264</v>
+      </c>
+      <c r="B269" t="s">
+        <v>356</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="14">
+        <v>265</v>
+      </c>
+      <c r="B270" t="s">
+        <v>356</v>
+      </c>
+      <c r="C270" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="14">
+        <v>266</v>
+      </c>
+      <c r="B271" t="s">
+        <v>356</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="14">
+        <v>267</v>
+      </c>
+      <c r="B272" t="s">
+        <v>356</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="14">
+        <v>268</v>
+      </c>
+      <c r="B273" t="s">
+        <v>356</v>
+      </c>
+      <c r="C273" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="14">
+        <v>269</v>
+      </c>
+      <c r="B274" t="s">
+        <v>356</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="14">
+        <v>270</v>
+      </c>
+      <c r="B275" t="s">
+        <v>356</v>
+      </c>
+      <c r="C275" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="14">
+        <v>271</v>
+      </c>
+      <c r="B276" t="s">
+        <v>356</v>
+      </c>
+      <c r="C276" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="14">
+        <v>272</v>
+      </c>
+      <c r="B277" t="s">
+        <v>356</v>
+      </c>
+      <c r="C277" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="14">
+        <v>273</v>
+      </c>
+      <c r="B278" t="s">
+        <v>356</v>
+      </c>
+      <c r="C278" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="14">
+        <v>274</v>
+      </c>
+      <c r="B279" t="s">
+        <v>356</v>
+      </c>
+      <c r="C279" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="14">
+        <v>275</v>
+      </c>
+      <c r="B280" t="s">
+        <v>356</v>
+      </c>
+      <c r="C280" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="14">
+        <v>276</v>
+      </c>
+      <c r="B281" t="s">
+        <v>356</v>
+      </c>
+      <c r="C281" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="14">
+        <v>277</v>
+      </c>
+      <c r="B282" t="s">
+        <v>356</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="14">
+        <v>278</v>
+      </c>
+      <c r="B283" t="s">
+        <v>356</v>
+      </c>
+      <c r="C283" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="14">
+        <v>279</v>
+      </c>
+      <c r="B284" t="s">
+        <v>356</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="D284" s="12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="14">
+        <v>280</v>
+      </c>
+      <c r="B285" t="s">
+        <v>356</v>
+      </c>
+      <c r="C285" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="14">
+        <v>281</v>
+      </c>
+      <c r="B286" t="s">
+        <v>356</v>
+      </c>
+      <c r="C286" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="14">
+        <v>282</v>
+      </c>
+      <c r="B287" t="s">
+        <v>356</v>
+      </c>
+      <c r="C287" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="14">
+        <v>283</v>
+      </c>
+      <c r="B288" t="s">
+        <v>356</v>
+      </c>
+      <c r="C288" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="14">
+        <v>284</v>
+      </c>
+      <c r="B289" t="s">
+        <v>356</v>
+      </c>
+      <c r="C289" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="14">
+        <v>285</v>
+      </c>
+      <c r="B290" t="s">
+        <v>356</v>
+      </c>
+      <c r="C290" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="14">
+        <v>286</v>
+      </c>
+      <c r="B291" t="s">
+        <v>356</v>
+      </c>
+      <c r="C291" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="14">
+        <v>287</v>
+      </c>
+      <c r="B292" t="s">
+        <v>356</v>
+      </c>
+      <c r="C292" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="14">
+        <v>288</v>
+      </c>
+      <c r="B293" t="s">
+        <v>356</v>
+      </c>
+      <c r="C293" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="14">
+        <v>289</v>
+      </c>
+      <c r="B294" t="s">
+        <v>356</v>
+      </c>
+      <c r="C294" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="14">
+        <v>290</v>
+      </c>
+      <c r="B295" t="s">
+        <v>356</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="14">
+        <v>291</v>
+      </c>
+      <c r="B296" t="s">
+        <v>356</v>
+      </c>
+      <c r="C296" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="14">
+        <v>292</v>
+      </c>
+      <c r="B297" t="s">
+        <v>356</v>
+      </c>
+      <c r="C297" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="14">
+        <v>293</v>
+      </c>
+      <c r="B298" t="s">
+        <v>356</v>
+      </c>
+      <c r="C298" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="14">
+        <v>294</v>
+      </c>
+      <c r="B299" t="s">
+        <v>356</v>
+      </c>
+      <c r="C299" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="14">
+        <v>295</v>
+      </c>
+      <c r="B300" t="s">
+        <v>356</v>
+      </c>
+      <c r="C300" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="14">
+        <v>296</v>
+      </c>
+      <c r="B301" t="s">
+        <v>356</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="14">
+        <v>297</v>
+      </c>
+      <c r="B302" t="s">
+        <v>356</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="14">
+        <v>298</v>
+      </c>
+      <c r="B303" t="s">
+        <v>356</v>
+      </c>
+      <c r="C303" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="14">
+        <v>299</v>
+      </c>
+      <c r="B304" t="s">
+        <v>356</v>
+      </c>
+      <c r="C304" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="14">
+        <v>300</v>
+      </c>
+      <c r="B305" t="s">
+        <v>356</v>
+      </c>
+      <c r="C305" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="14">
+        <v>301</v>
+      </c>
+      <c r="B306" t="s">
+        <v>356</v>
+      </c>
+      <c r="C306" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="14">
+        <v>302</v>
+      </c>
+      <c r="B307" t="s">
+        <v>356</v>
+      </c>
+      <c r="C307" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="14">
+        <v>303</v>
+      </c>
+      <c r="B308" t="s">
+        <v>356</v>
+      </c>
+      <c r="C308" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="14">
+        <v>304</v>
+      </c>
+      <c r="B309" t="s">
+        <v>356</v>
+      </c>
+      <c r="C309" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="14">
+        <v>305</v>
+      </c>
+      <c r="B310" t="s">
+        <v>356</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="14">
+        <v>306</v>
+      </c>
+      <c r="B311" t="s">
+        <v>356</v>
+      </c>
+      <c r="C311" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="14">
+        <v>307</v>
+      </c>
+      <c r="B312" t="s">
+        <v>356</v>
+      </c>
+      <c r="C312" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="14">
+        <v>308</v>
+      </c>
+      <c r="B313" t="s">
+        <v>356</v>
+      </c>
+      <c r="C313" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="14">
+        <v>309</v>
+      </c>
+      <c r="B314" t="s">
+        <v>356</v>
+      </c>
+      <c r="C314" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="14">
+        <v>310</v>
+      </c>
+      <c r="B315" t="s">
+        <v>356</v>
+      </c>
+      <c r="C315" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="14">
+        <v>311</v>
+      </c>
+      <c r="B316" t="s">
+        <v>356</v>
+      </c>
+      <c r="C316" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="14">
+        <v>312</v>
+      </c>
+      <c r="B317" t="s">
+        <v>356</v>
+      </c>
+      <c r="C317" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="14">
+        <v>313</v>
+      </c>
+      <c r="B318" t="s">
+        <v>356</v>
+      </c>
+      <c r="C318" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="14">
+        <v>314</v>
+      </c>
+      <c r="B319" t="s">
+        <v>356</v>
+      </c>
+      <c r="C319" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="14">
+        <v>315</v>
+      </c>
+      <c r="B320" t="s">
+        <v>356</v>
+      </c>
+      <c r="C320" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="14">
+        <v>316</v>
+      </c>
+      <c r="B321" t="s">
+        <v>356</v>
+      </c>
+      <c r="C321" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="14">
+        <v>317</v>
+      </c>
+      <c r="B322" t="s">
+        <v>356</v>
+      </c>
+      <c r="C322" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="14">
+        <v>318</v>
+      </c>
+      <c r="B323" t="s">
+        <v>356</v>
+      </c>
+      <c r="C323" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="14">
+        <v>319</v>
+      </c>
+      <c r="B324" t="s">
+        <v>356</v>
+      </c>
+      <c r="C324" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="14">
+        <v>320</v>
+      </c>
+      <c r="B325" t="s">
+        <v>356</v>
+      </c>
+      <c r="C325" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="14">
+        <v>321</v>
+      </c>
+      <c r="B326" t="s">
+        <v>356</v>
+      </c>
+      <c r="C326" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="14">
+        <v>322</v>
+      </c>
+      <c r="B327" t="s">
+        <v>356</v>
+      </c>
+      <c r="C327" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="14">
+        <v>323</v>
+      </c>
+      <c r="B328" t="s">
+        <v>356</v>
+      </c>
+      <c r="C328" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="14">
+        <v>324</v>
+      </c>
+      <c r="B329" t="s">
+        <v>356</v>
+      </c>
+      <c r="C329" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="14">
+        <v>325</v>
+      </c>
+      <c r="B330" t="s">
+        <v>356</v>
+      </c>
+      <c r="C330" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="14">
+        <v>326</v>
+      </c>
+      <c r="B331" t="s">
+        <v>356</v>
+      </c>
+      <c r="C331" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14">
+        <v>327</v>
+      </c>
+      <c r="B332" t="s">
+        <v>356</v>
+      </c>
+      <c r="C332" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="14">
+        <v>328</v>
+      </c>
+      <c r="B333" t="s">
+        <v>356</v>
+      </c>
+      <c r="C333" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14">
+        <v>329</v>
+      </c>
+      <c r="B334" t="s">
+        <v>356</v>
+      </c>
+      <c r="C334" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="14">
+        <v>330</v>
+      </c>
+      <c r="B335" t="s">
+        <v>356</v>
+      </c>
+      <c r="C335" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="14">
+        <v>331</v>
+      </c>
+      <c r="B336" t="s">
+        <v>356</v>
+      </c>
+      <c r="C336" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="14">
+        <v>332</v>
+      </c>
+      <c r="B337" t="s">
+        <v>356</v>
+      </c>
+      <c r="C337" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="14">
+        <v>333</v>
+      </c>
+      <c r="B338" t="s">
+        <v>356</v>
+      </c>
+      <c r="C338" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="14">
+        <v>334</v>
+      </c>
+      <c r="B339" t="s">
+        <v>356</v>
+      </c>
+      <c r="C339" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="14">
+        <v>335</v>
+      </c>
+      <c r="B340" t="s">
+        <v>356</v>
+      </c>
+      <c r="C340" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="14">
+        <v>336</v>
+      </c>
+      <c r="B341" t="s">
+        <v>356</v>
+      </c>
+      <c r="C341" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="14">
+        <v>337</v>
+      </c>
+      <c r="B342" t="s">
+        <v>356</v>
+      </c>
+      <c r="C342" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="14">
+        <v>338</v>
+      </c>
+      <c r="B343" t="s">
+        <v>356</v>
+      </c>
+      <c r="C343" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="14">
+        <v>339</v>
+      </c>
+      <c r="B344" t="s">
+        <v>356</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="14">
+        <v>340</v>
+      </c>
+      <c r="B345" t="s">
+        <v>356</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="14">
+        <v>341</v>
+      </c>
+      <c r="B346" t="s">
+        <v>356</v>
+      </c>
+      <c r="C346" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="14">
+        <v>342</v>
+      </c>
+      <c r="B347" t="s">
+        <v>356</v>
+      </c>
+      <c r="C347" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="14">
+        <v>343</v>
+      </c>
+      <c r="B348" t="s">
+        <v>356</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="14">
+        <v>344</v>
+      </c>
+      <c r="B349" t="s">
+        <v>356</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="14">
+        <v>345</v>
+      </c>
+      <c r="B350" t="s">
+        <v>356</v>
+      </c>
+      <c r="C350" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="14">
+        <v>346</v>
+      </c>
+      <c r="B351" t="s">
+        <v>356</v>
+      </c>
+      <c r="C351" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="14">
+        <v>347</v>
+      </c>
+      <c r="B352" t="s">
+        <v>356</v>
+      </c>
+      <c r="C352" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="14">
+        <v>348</v>
+      </c>
+      <c r="B353" t="s">
+        <v>356</v>
+      </c>
+      <c r="C353" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="14">
+        <v>349</v>
+      </c>
+      <c r="B354" t="s">
+        <v>356</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="14">
+        <v>350</v>
+      </c>
+      <c r="B355" t="s">
+        <v>356</v>
+      </c>
+      <c r="C355" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="14">
+        <v>351</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="14">
+        <v>352</v>
+      </c>
+      <c r="B357" t="s">
+        <v>356</v>
+      </c>
+      <c r="C357" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="14">
+        <v>353</v>
+      </c>
+      <c r="B358" t="s">
+        <v>356</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="14">
+        <v>354</v>
+      </c>
+      <c r="B359" t="s">
+        <v>356</v>
+      </c>
+      <c r="C359" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="14">
+        <v>355</v>
+      </c>
+      <c r="B360" t="s">
+        <v>356</v>
+      </c>
+      <c r="C360" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="14">
+        <v>356</v>
+      </c>
+      <c r="B361" t="s">
+        <v>356</v>
+      </c>
+      <c r="C361" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="14">
+        <v>357</v>
+      </c>
+      <c r="B362" t="s">
+        <v>421</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D362" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="14">
+        <v>358</v>
+      </c>
+      <c r="B363" t="s">
+        <v>421</v>
+      </c>
+      <c r="C363" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="14">
+        <v>359</v>
+      </c>
+      <c r="B364" t="s">
+        <v>421</v>
+      </c>
+      <c r="C364" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="14">
+        <v>360</v>
+      </c>
+      <c r="B365" t="s">
+        <v>421</v>
+      </c>
+      <c r="C365" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="14">
+        <v>361</v>
+      </c>
+      <c r="B366" t="s">
+        <v>421</v>
+      </c>
+      <c r="C366" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="14">
+        <v>362</v>
+      </c>
+      <c r="B367" t="s">
+        <v>421</v>
+      </c>
+      <c r="C367" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="14">
+        <v>363</v>
+      </c>
+      <c r="B368" t="s">
+        <v>421</v>
+      </c>
+      <c r="C368" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="14">
+        <v>364</v>
+      </c>
+      <c r="B369" t="s">
+        <v>421</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D369" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="14">
+        <v>365</v>
+      </c>
+      <c r="B370" t="s">
+        <v>421</v>
+      </c>
+      <c r="C370" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="14">
+        <v>366</v>
+      </c>
+      <c r="B371" t="s">
+        <v>421</v>
+      </c>
+      <c r="C371" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="14">
+        <v>367</v>
+      </c>
+      <c r="B372" t="s">
+        <v>421</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="14">
+        <v>368</v>
+      </c>
+      <c r="B373" t="s">
+        <v>421</v>
+      </c>
+      <c r="C373" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="14">
+        <v>369</v>
+      </c>
+      <c r="B374" t="s">
+        <v>421</v>
+      </c>
+      <c r="C374" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="14">
+        <v>370</v>
+      </c>
+      <c r="B375" t="s">
+        <v>421</v>
+      </c>
+      <c r="C375" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="14">
+        <v>371</v>
+      </c>
+      <c r="B376" t="s">
+        <v>421</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="14">
+        <v>372</v>
+      </c>
+      <c r="B377" t="s">
+        <v>421</v>
+      </c>
+      <c r="C377" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="14">
+        <v>373</v>
+      </c>
+      <c r="B378" t="s">
+        <v>421</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="14">
+        <v>374</v>
+      </c>
+      <c r="B379" t="s">
+        <v>421</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="14">
+        <v>375</v>
+      </c>
+      <c r="B380" t="s">
+        <v>421</v>
+      </c>
+      <c r="C380" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="14">
+        <v>376</v>
+      </c>
+      <c r="B381" t="s">
+        <v>421</v>
+      </c>
+      <c r="C381" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="14">
+        <v>377</v>
+      </c>
+      <c r="B382" t="s">
+        <v>421</v>
+      </c>
+      <c r="C382" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="14">
+        <v>378</v>
+      </c>
+      <c r="B383" t="s">
+        <v>421</v>
+      </c>
+      <c r="C383" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="14">
+        <v>379</v>
+      </c>
+      <c r="B384" t="s">
+        <v>421</v>
+      </c>
+      <c r="C384" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="14">
+        <v>380</v>
+      </c>
+      <c r="B385" t="s">
+        <v>421</v>
+      </c>
+      <c r="C385" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="14">
+        <v>381</v>
+      </c>
+      <c r="B386" t="s">
+        <v>421</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="14">
+        <v>382</v>
+      </c>
+      <c r="B387" t="s">
+        <v>421</v>
+      </c>
+      <c r="C387" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="14">
+        <v>383</v>
+      </c>
+      <c r="B388" t="s">
+        <v>421</v>
+      </c>
+      <c r="C388" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="14">
+        <v>384</v>
+      </c>
+      <c r="B389" t="s">
+        <v>421</v>
+      </c>
+      <c r="C389" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="14">
+        <v>385</v>
+      </c>
+      <c r="B390" t="s">
+        <v>421</v>
+      </c>
+      <c r="C390" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="14">
+        <v>386</v>
+      </c>
+      <c r="B391" t="s">
+        <v>421</v>
+      </c>
+      <c r="C391" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="14">
+        <v>387</v>
+      </c>
+      <c r="B392" t="s">
+        <v>421</v>
+      </c>
+      <c r="C392" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="14">
+        <v>388</v>
+      </c>
+      <c r="B393" t="s">
+        <v>421</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="14">
+        <v>389</v>
+      </c>
+      <c r="B394" t="s">
+        <v>421</v>
+      </c>
+      <c r="C394" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="14">
+        <v>390</v>
+      </c>
+      <c r="B395" t="s">
+        <v>421</v>
+      </c>
+      <c r="C395" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="14">
+        <v>391</v>
+      </c>
+      <c r="B396" t="s">
+        <v>421</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="14">
+        <v>392</v>
+      </c>
+      <c r="B397" t="s">
+        <v>421</v>
+      </c>
+      <c r="C397" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="14">
+        <v>393</v>
+      </c>
+      <c r="B398" t="s">
+        <v>421</v>
+      </c>
+      <c r="C398" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="14">
+        <v>394</v>
+      </c>
+      <c r="B399" t="s">
+        <v>421</v>
+      </c>
+      <c r="C399" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="14">
+        <v>395</v>
+      </c>
+      <c r="B400" t="s">
+        <v>421</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="14">
+        <v>396</v>
+      </c>
+      <c r="B401" t="s">
+        <v>421</v>
+      </c>
+      <c r="C401" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="14">
+        <v>397</v>
+      </c>
+      <c r="B402" t="s">
+        <v>421</v>
+      </c>
+      <c r="C402" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="14">
+        <v>398</v>
+      </c>
+      <c r="B403" t="s">
+        <v>421</v>
+      </c>
+      <c r="C403" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="14">
+        <v>399</v>
+      </c>
+      <c r="B404" t="s">
+        <v>421</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="14">
+        <v>400</v>
+      </c>
+      <c r="B405" t="s">
+        <v>421</v>
+      </c>
+      <c r="C405" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="14">
+        <v>401</v>
+      </c>
+      <c r="B406" t="s">
+        <v>421</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="14">
+        <v>402</v>
+      </c>
+      <c r="B407" t="s">
+        <v>421</v>
+      </c>
+      <c r="C407" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="14">
+        <v>403</v>
+      </c>
+      <c r="B408" t="s">
+        <v>421</v>
+      </c>
+      <c r="C408" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="14">
+        <v>404</v>
+      </c>
+      <c r="B409" t="s">
+        <v>421</v>
+      </c>
+      <c r="C409" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="14">
+        <v>405</v>
+      </c>
+      <c r="B410" t="s">
+        <v>421</v>
+      </c>
+      <c r="C410" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="14">
+        <v>406</v>
+      </c>
+      <c r="B411" t="s">
+        <v>421</v>
+      </c>
+      <c r="C411" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="14">
+        <v>407</v>
+      </c>
+      <c r="B412" t="s">
+        <v>421</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="14">
+        <v>408</v>
+      </c>
+      <c r="B413" t="s">
+        <v>421</v>
+      </c>
+      <c r="C413" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="14">
+        <v>409</v>
+      </c>
+      <c r="B414" t="s">
+        <v>421</v>
+      </c>
+      <c r="C414" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="14">
+        <v>410</v>
+      </c>
+      <c r="B415" t="s">
+        <v>421</v>
+      </c>
+      <c r="C415" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="14">
+        <v>411</v>
+      </c>
+      <c r="B416" t="s">
+        <v>421</v>
+      </c>
+      <c r="C416" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="14">
+        <v>412</v>
+      </c>
+      <c r="B417" t="s">
+        <v>421</v>
+      </c>
+      <c r="C417" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="14">
+        <v>413</v>
+      </c>
+      <c r="B418" t="s">
+        <v>421</v>
+      </c>
+      <c r="C418" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="14">
+        <v>414</v>
+      </c>
+      <c r="B419" t="s">
+        <v>421</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="14">
+        <v>415</v>
+      </c>
+      <c r="B420" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="14">
+        <v>416</v>
+      </c>
+      <c r="B421" t="s">
+        <v>421</v>
+      </c>
+      <c r="C421" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="14">
+        <v>417</v>
+      </c>
+      <c r="B422" t="s">
+        <v>421</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="14">
+        <v>418</v>
+      </c>
+      <c r="B423" t="s">
+        <v>421</v>
+      </c>
+      <c r="C423" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="14">
+        <v>419</v>
+      </c>
+      <c r="B424" t="s">
+        <v>421</v>
+      </c>
+      <c r="C424" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="14">
+        <v>420</v>
+      </c>
+      <c r="B425" t="s">
+        <v>421</v>
+      </c>
+      <c r="C425" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="14">
+        <v>421</v>
+      </c>
+      <c r="B426" t="s">
+        <v>555</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="14">
+        <v>422</v>
+      </c>
+      <c r="B427" t="s">
+        <v>555</v>
+      </c>
+      <c r="C427" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="14">
+        <v>423</v>
+      </c>
+      <c r="B428" t="s">
+        <v>555</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="14">
+        <v>424</v>
+      </c>
+      <c r="B429" t="s">
+        <v>555</v>
+      </c>
+      <c r="C429" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="14">
+        <v>425</v>
+      </c>
+      <c r="B430" t="s">
+        <v>555</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="14">
+        <v>426</v>
+      </c>
+      <c r="B431" t="s">
+        <v>555</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="14">
+        <v>427</v>
+      </c>
+      <c r="B432" t="s">
+        <v>555</v>
+      </c>
+      <c r="C432" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="14">
+        <v>428</v>
+      </c>
+      <c r="B433" t="s">
+        <v>555</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="14">
+        <v>429</v>
+      </c>
+      <c r="B434" t="s">
+        <v>555</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="14">
+        <v>430</v>
+      </c>
+      <c r="B435" t="s">
+        <v>555</v>
+      </c>
+      <c r="C435" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="14">
+        <v>431</v>
+      </c>
+      <c r="B436" t="s">
+        <v>555</v>
+      </c>
+      <c r="C436" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="14">
+        <v>432</v>
+      </c>
+      <c r="B437" t="s">
+        <v>555</v>
+      </c>
+      <c r="C437" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="14">
+        <v>433</v>
+      </c>
+      <c r="B438" t="s">
+        <v>555</v>
+      </c>
+      <c r="C438" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="14">
+        <v>434</v>
+      </c>
+      <c r="B439" t="s">
+        <v>555</v>
+      </c>
+      <c r="C439" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="14">
+        <v>435</v>
+      </c>
+      <c r="B440" t="s">
+        <v>555</v>
+      </c>
+      <c r="C440" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="14">
+        <v>436</v>
+      </c>
+      <c r="B441" t="s">
+        <v>555</v>
+      </c>
+      <c r="C441" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="14">
+        <v>437</v>
+      </c>
+      <c r="B442" t="s">
+        <v>555</v>
+      </c>
+      <c r="C442" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="14">
+        <v>438</v>
+      </c>
+      <c r="B443" t="s">
+        <v>555</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="14">
+        <v>439</v>
+      </c>
+      <c r="B444" t="s">
+        <v>555</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="14">
+        <v>440</v>
+      </c>
+      <c r="B445" t="s">
+        <v>555</v>
+      </c>
+      <c r="C445" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="14">
+        <v>441</v>
+      </c>
+      <c r="B446" t="s">
+        <v>555</v>
+      </c>
+      <c r="C446" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="14">
+        <v>442</v>
+      </c>
+      <c r="B447" t="s">
+        <v>555</v>
+      </c>
+      <c r="C447" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="14">
+        <v>443</v>
+      </c>
+      <c r="B448" t="s">
+        <v>555</v>
+      </c>
+      <c r="C448" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="14">
+        <v>444</v>
+      </c>
+      <c r="B449" t="s">
+        <v>555</v>
+      </c>
+      <c r="C449" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="14">
+        <v>445</v>
+      </c>
+      <c r="B450" t="s">
+        <v>555</v>
+      </c>
+      <c r="C450" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="14">
+        <v>446</v>
+      </c>
+      <c r="B451" t="s">
+        <v>555</v>
+      </c>
+      <c r="C451" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="14">
+        <v>447</v>
+      </c>
+      <c r="B452" t="s">
+        <v>555</v>
+      </c>
+      <c r="C452" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="14">
+        <v>448</v>
+      </c>
+      <c r="B453" t="s">
+        <v>555</v>
+      </c>
+      <c r="C453" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="14">
+        <v>449</v>
+      </c>
+      <c r="B454" t="s">
+        <v>555</v>
+      </c>
+      <c r="C454" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="14">
+        <v>450</v>
+      </c>
+      <c r="B455" t="s">
+        <v>555</v>
+      </c>
+      <c r="C455" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="14">
+        <v>451</v>
+      </c>
+      <c r="B456" t="s">
+        <v>555</v>
+      </c>
+      <c r="C456" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="14">
+        <v>452</v>
+      </c>
+      <c r="B457" t="s">
+        <v>555</v>
+      </c>
+      <c r="C457" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="14">
+        <v>453</v>
+      </c>
+      <c r="B458" t="s">
+        <v>555</v>
+      </c>
+      <c r="C458" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="14">
+        <v>454</v>
+      </c>
+      <c r="B459" t="s">
+        <v>555</v>
+      </c>
+      <c r="C459" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="14">
+        <v>455</v>
+      </c>
+      <c r="B460" t="s">
+        <v>555</v>
+      </c>
+      <c r="C460" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="14">
+        <v>456</v>
+      </c>
+      <c r="B461" t="s">
+        <v>555</v>
+      </c>
+      <c r="C461" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="14">
+        <v>457</v>
+      </c>
+      <c r="B462" t="s">
+        <v>555</v>
+      </c>
+      <c r="C462" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="14">
+        <v>458</v>
+      </c>
+      <c r="B463" t="s">
+        <v>555</v>
+      </c>
+      <c r="C463" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="14">
+        <v>459</v>
+      </c>
+      <c r="B464" t="s">
+        <v>555</v>
+      </c>
+      <c r="C464" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="14">
+        <v>460</v>
+      </c>
+      <c r="B465" t="s">
+        <v>555</v>
+      </c>
+      <c r="C465" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="14">
+        <v>461</v>
+      </c>
+      <c r="B466" t="s">
+        <v>555</v>
+      </c>
+      <c r="C466" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="14">
+        <v>462</v>
+      </c>
+      <c r="B467" t="s">
+        <v>555</v>
+      </c>
+      <c r="C467" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="14">
+        <v>463</v>
+      </c>
+      <c r="B468" t="s">
+        <v>555</v>
+      </c>
+      <c r="C468" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="14">
+        <v>464</v>
+      </c>
+      <c r="B469" t="s">
+        <v>555</v>
+      </c>
+      <c r="C469" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="14">
+        <v>465</v>
+      </c>
+      <c r="B470" t="s">
+        <v>555</v>
+      </c>
+      <c r="C470" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="14">
+        <v>466</v>
+      </c>
+      <c r="B471" t="s">
+        <v>555</v>
+      </c>
+      <c r="C471" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="14">
+        <v>467</v>
+      </c>
+      <c r="B472" t="s">
+        <v>555</v>
+      </c>
+      <c r="C472" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="14">
+        <v>468</v>
+      </c>
+      <c r="B473" t="s">
+        <v>555</v>
+      </c>
+      <c r="C473" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="14">
+        <v>469</v>
+      </c>
+      <c r="B474" t="s">
+        <v>555</v>
+      </c>
+      <c r="C474" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="14">
+        <v>470</v>
+      </c>
+      <c r="B475" t="s">
+        <v>555</v>
+      </c>
+      <c r="C475" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="14">
+        <v>471</v>
+      </c>
+      <c r="B476" t="s">
+        <v>555</v>
+      </c>
+      <c r="C476" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="14">
+        <v>472</v>
+      </c>
+      <c r="B477" t="s">
+        <v>555</v>
+      </c>
+      <c r="C477" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="14">
+        <v>473</v>
+      </c>
+      <c r="B478" t="s">
+        <v>555</v>
+      </c>
+      <c r="C478" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="14">
+        <v>474</v>
+      </c>
+      <c r="B479" t="s">
+        <v>555</v>
+      </c>
+      <c r="C479" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="14">
+        <v>475</v>
+      </c>
+      <c r="B480" t="s">
+        <v>555</v>
+      </c>
+      <c r="C480" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="14">
+        <v>476</v>
+      </c>
+      <c r="B481" t="s">
+        <v>555</v>
+      </c>
+      <c r="C481" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="14">
+        <v>477</v>
+      </c>
+      <c r="B482" t="s">
+        <v>555</v>
+      </c>
+      <c r="C482" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="14">
+        <v>478</v>
+      </c>
+      <c r="B483" t="s">
+        <v>555</v>
+      </c>
+      <c r="C483" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="14">
+        <v>479</v>
+      </c>
+      <c r="B484" t="s">
+        <v>555</v>
+      </c>
+      <c r="C484" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="14">
+        <v>480</v>
+      </c>
+      <c r="B485" t="s">
+        <v>555</v>
+      </c>
+      <c r="C485" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="14">
+        <v>481</v>
+      </c>
+      <c r="B486" t="s">
+        <v>555</v>
+      </c>
+      <c r="C486" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="14">
+        <v>482</v>
+      </c>
+      <c r="B487" t="s">
+        <v>555</v>
+      </c>
+      <c r="C487" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="14">
+        <v>483</v>
+      </c>
+      <c r="B488" t="s">
+        <v>555</v>
+      </c>
+      <c r="C488" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="14">
+        <v>484</v>
+      </c>
+      <c r="B489" t="s">
+        <v>555</v>
+      </c>
+      <c r="C489" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="14">
+        <v>485</v>
+      </c>
+      <c r="B490" t="s">
+        <v>555</v>
+      </c>
+      <c r="C490" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="14">
+        <v>486</v>
+      </c>
+      <c r="B491" t="s">
+        <v>555</v>
+      </c>
+      <c r="C491" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="14">
+        <v>487</v>
+      </c>
+      <c r="B492" t="s">
+        <v>555</v>
+      </c>
+      <c r="C492" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="14">
+        <v>488</v>
+      </c>
+      <c r="B493" t="s">
+        <v>555</v>
+      </c>
+      <c r="C493" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="14">
+        <v>489</v>
+      </c>
+      <c r="B494" t="s">
+        <v>555</v>
+      </c>
+      <c r="C494" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14">
+        <v>490</v>
+      </c>
+      <c r="B495" t="s">
+        <v>555</v>
+      </c>
+      <c r="C495" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14">
+        <v>491</v>
+      </c>
+      <c r="B496" t="s">
+        <v>555</v>
+      </c>
+      <c r="C496" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="14">
+        <v>492</v>
+      </c>
+      <c r="B497" t="s">
+        <v>555</v>
+      </c>
+      <c r="C497" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="14">
+        <v>493</v>
+      </c>
+      <c r="B498" t="s">
+        <v>555</v>
+      </c>
+      <c r="C498" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14">
+        <v>494</v>
+      </c>
+      <c r="B499" t="s">
+        <v>555</v>
+      </c>
+      <c r="C499" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="14">
+        <v>495</v>
+      </c>
+      <c r="B500" t="s">
+        <v>555</v>
+      </c>
+      <c r="C500" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14">
+        <v>496</v>
+      </c>
+      <c r="B501" t="s">
+        <v>555</v>
+      </c>
+      <c r="C501" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="14">
+        <v>497</v>
+      </c>
+      <c r="B502" t="s">
+        <v>555</v>
+      </c>
+      <c r="C502" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="14">
+        <v>498</v>
+      </c>
+      <c r="B503" t="s">
+        <v>555</v>
+      </c>
+      <c r="C503" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="14">
+        <v>499</v>
+      </c>
+      <c r="B504" t="s">
+        <v>555</v>
+      </c>
+      <c r="C504" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A505" s="14">
+        <v>500</v>
+      </c>
+      <c r="B505" t="s">
+        <v>555</v>
+      </c>
+      <c r="C505" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="14">
+        <v>501</v>
+      </c>
+      <c r="B506" t="s">
+        <v>555</v>
+      </c>
+      <c r="C506" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A507" s="14">
+        <v>502</v>
+      </c>
+      <c r="B507" t="s">
+        <v>555</v>
+      </c>
+      <c r="C507" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A508" s="14">
+        <v>503</v>
+      </c>
+      <c r="B508" t="s">
+        <v>555</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A509" s="14">
+        <v>504</v>
+      </c>
+      <c r="B509" t="s">
+        <v>555</v>
+      </c>
+      <c r="C509" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A510" s="14">
+        <v>505</v>
+      </c>
+      <c r="B510" t="s">
+        <v>555</v>
+      </c>
+      <c r="C510" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A511" s="14">
+        <v>506</v>
+      </c>
+      <c r="B511" t="s">
+        <v>555</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="14">
+        <v>507</v>
+      </c>
+      <c r="B512" t="s">
+        <v>555</v>
+      </c>
+      <c r="C512" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="14">
+        <v>508</v>
+      </c>
+      <c r="B513" t="s">
+        <v>555</v>
+      </c>
+      <c r="C513" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="14">
+        <v>509</v>
+      </c>
+      <c r="B514" t="s">
+        <v>555</v>
+      </c>
+      <c r="C514" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="14">
+        <v>510</v>
+      </c>
+      <c r="B515" t="s">
+        <v>555</v>
+      </c>
+      <c r="C515" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="14">
+        <v>511</v>
+      </c>
+      <c r="B516" t="s">
+        <v>555</v>
+      </c>
+      <c r="C516" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14">
+        <v>512</v>
+      </c>
+      <c r="B517" t="s">
+        <v>555</v>
+      </c>
+      <c r="C517" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="14">
+        <v>513</v>
+      </c>
+      <c r="B518" t="s">
+        <v>555</v>
+      </c>
+      <c r="C518" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="14">
+        <v>514</v>
+      </c>
+      <c r="B519" t="s">
+        <v>555</v>
+      </c>
+      <c r="C519" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="14">
+        <v>515</v>
+      </c>
+      <c r="B520" t="s">
+        <v>555</v>
+      </c>
+      <c r="C520" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="14">
+        <v>516</v>
+      </c>
+      <c r="B521" t="s">
+        <v>555</v>
+      </c>
+      <c r="C521" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="14">
+        <v>517</v>
+      </c>
+      <c r="B522" t="s">
+        <v>555</v>
+      </c>
+      <c r="C522" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="14">
+        <v>518</v>
+      </c>
+      <c r="B523" t="s">
+        <v>555</v>
+      </c>
+      <c r="C523" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="14">
+        <v>519</v>
+      </c>
+      <c r="B524" t="s">
+        <v>555</v>
+      </c>
+      <c r="C524" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="14">
+        <v>520</v>
+      </c>
+      <c r="B525" t="s">
+        <v>555</v>
+      </c>
+      <c r="C525" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="14">
+        <v>521</v>
+      </c>
+      <c r="B526" t="s">
+        <v>555</v>
+      </c>
+      <c r="C526" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="14">
+        <v>522</v>
+      </c>
+      <c r="B527" t="s">
+        <v>555</v>
+      </c>
+      <c r="C527" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="14">
+        <v>523</v>
+      </c>
+      <c r="B528" t="s">
+        <v>555</v>
+      </c>
+      <c r="C528" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A529" s="14">
+        <v>524</v>
+      </c>
+      <c r="B529" t="s">
+        <v>555</v>
+      </c>
+      <c r="C529" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="14">
+        <v>525</v>
+      </c>
+      <c r="B530" t="s">
+        <v>555</v>
+      </c>
+      <c r="C530" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="14">
+        <v>526</v>
+      </c>
+      <c r="B531" t="s">
+        <v>555</v>
+      </c>
+      <c r="C531" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="14">
+        <v>527</v>
+      </c>
+      <c r="B532" t="s">
+        <v>555</v>
+      </c>
+      <c r="C532" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="14">
+        <v>528</v>
+      </c>
+      <c r="B533" t="s">
+        <v>555</v>
+      </c>
+      <c r="C533" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="14">
+        <v>529</v>
+      </c>
+      <c r="B534" t="s">
+        <v>555</v>
+      </c>
+      <c r="C534" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="14">
+        <v>530</v>
+      </c>
+      <c r="B535" t="s">
+        <v>555</v>
+      </c>
+      <c r="C535" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A536" s="14">
+        <v>531</v>
+      </c>
+      <c r="B536" t="s">
+        <v>555</v>
+      </c>
+      <c r="C536" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="14">
+        <v>532</v>
+      </c>
+      <c r="B537" t="s">
+        <v>555</v>
+      </c>
+      <c r="C537" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="14">
+        <v>533</v>
+      </c>
+      <c r="B538" t="s">
+        <v>555</v>
+      </c>
+      <c r="C538" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A539" s="14">
+        <v>534</v>
+      </c>
+      <c r="B539" t="s">
+        <v>555</v>
+      </c>
+      <c r="C539" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A540" s="14">
+        <v>535</v>
+      </c>
+      <c r="B540" t="s">
+        <v>555</v>
+      </c>
+      <c r="C540" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A541" s="14">
+        <v>536</v>
+      </c>
+      <c r="B541" t="s">
+        <v>555</v>
+      </c>
+      <c r="C541" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A542" s="14">
+        <v>537</v>
+      </c>
+      <c r="B542" t="s">
+        <v>555</v>
+      </c>
+      <c r="C542" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A543" s="14">
+        <v>538</v>
+      </c>
+      <c r="B543" t="s">
+        <v>555</v>
+      </c>
+      <c r="C543" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A544" s="14">
+        <v>539</v>
+      </c>
+      <c r="B544" t="s">
+        <v>555</v>
+      </c>
+      <c r="C544" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="14">
+        <v>540</v>
+      </c>
+      <c r="B545" t="s">
+        <v>555</v>
+      </c>
+      <c r="C545" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A546" s="14">
+        <v>541</v>
+      </c>
+      <c r="B546" t="s">
+        <v>555</v>
+      </c>
+      <c r="C546" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="14">
+        <v>542</v>
+      </c>
+      <c r="B547" t="s">
+        <v>555</v>
+      </c>
+      <c r="C547" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="14">
+        <v>543</v>
+      </c>
+      <c r="B548" t="s">
+        <v>555</v>
+      </c>
+      <c r="C548" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="14">
+        <v>544</v>
+      </c>
+      <c r="B549" t="s">
+        <v>555</v>
+      </c>
+      <c r="C549" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="14">
+        <v>545</v>
+      </c>
+      <c r="B550" t="s">
+        <v>555</v>
+      </c>
+      <c r="C550" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="14">
+        <v>546</v>
+      </c>
+      <c r="B551" t="s">
+        <v>555</v>
+      </c>
+      <c r="C551" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="14">
+        <v>547</v>
+      </c>
+      <c r="B552" t="s">
+        <v>555</v>
+      </c>
+      <c r="C552" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="14">
+        <v>548</v>
+      </c>
+      <c r="B553" t="s">
+        <v>555</v>
+      </c>
+      <c r="C553" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="14">
+        <v>549</v>
+      </c>
+      <c r="B554" t="s">
+        <v>555</v>
+      </c>
+      <c r="C554" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="14">
+        <v>550</v>
+      </c>
+      <c r="B555" t="s">
+        <v>555</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="14">
+        <v>551</v>
+      </c>
+      <c r="B556" t="s">
+        <v>555</v>
+      </c>
+      <c r="C556" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="14">
+        <v>552</v>
+      </c>
+      <c r="B557" t="s">
+        <v>555</v>
+      </c>
+      <c r="C557" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="14">
+        <v>553</v>
+      </c>
+      <c r="B558" t="s">
+        <v>555</v>
+      </c>
+      <c r="C558" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A5:E558">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Wand"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>565</v>
       </c>
     </row>
@@ -2263,7 +8764,7 @@
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C7" t="s">
@@ -2404,7 +8905,7 @@
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C13" t="s">
@@ -2473,7 +8974,7 @@
       <c r="D16" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>105</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2564,7 +9065,7 @@
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C21" t="s">
@@ -2584,7 +9085,7 @@
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C22" t="s">
@@ -2607,7 +9108,7 @@
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C23" t="s">
@@ -2636,7 +9137,7 @@
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C24" t="s">
@@ -2838,7 +9339,7 @@
       <c r="E35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="12" t="s">
         <v>557</v>
       </c>
       <c r="G35" t="s">
@@ -3286,8 +9787,11 @@
       <c r="C64" t="s">
         <v>83</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="13" t="s">
         <v>153</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="G64" t="s">
         <v>415</v>
@@ -3464,8 +9968,11 @@
       </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="E78" t="s">
+      <c r="E78" s="13" t="s">
         <v>167</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>559</v>
       </c>
       <c r="I78" t="s">
         <v>494</v>
@@ -3907,8 +10414,11 @@
       </c>
     </row>
     <row r="130" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E130" t="s">
+      <c r="E130" s="4" t="s">
         <v>218</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>557</v>
       </c>
       <c r="I130" t="s">
         <v>546</v>
@@ -4270,8 +10780,11 @@
       </c>
     </row>
     <row r="190" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E190" t="s">
+      <c r="E190" s="13" t="s">
         <v>278</v>
+      </c>
+      <c r="F190" s="12" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="191" spans="5:6" x14ac:dyDescent="0.25">
@@ -4699,7 +11212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EC1"/>
   <sheetViews>

--- a/ImageMagickSharp/ImageMagickCommands.xlsx
+++ b/ImageMagickSharp/ImageMagickCommands.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="2710">
   <si>
     <t>ClearMagickWand</t>
   </si>
@@ -13338,11 +13338,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D265" sqref="D265:E265"/>
+      <pane ySplit="5" topLeftCell="A319" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13404,7 +13405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>433</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>BorderColor</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>507</v>
       </c>
@@ -13448,7 +13449,7 @@
         <v>BorderColor</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>420</v>
       </c>
@@ -13470,7 +13471,7 @@
         <v>ClearDrawingWand</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>434</v>
       </c>
@@ -13487,7 +13488,7 @@
         <v>ClipPath</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>508</v>
       </c>
@@ -13504,7 +13505,7 @@
         <v>ClipPath</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>435</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>ClipRule</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>509</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>ClipRule</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>436</v>
       </c>
@@ -13555,7 +13556,7 @@
         <v>ClipUnits</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>510</v>
       </c>
@@ -13572,7 +13573,7 @@
         <v>ClipUnits</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>421</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>CloneDrawingWand</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>422</v>
       </c>
@@ -13616,7 +13617,7 @@
         <v>DestroyDrawingWand</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>423</v>
       </c>
@@ -13633,7 +13634,7 @@
         <v>DrawAffine</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>424</v>
       </c>
@@ -13655,7 +13656,7 @@
         <v>DrawAnnotation</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>425</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>DrawArc</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>426</v>
       </c>
@@ -13694,7 +13695,7 @@
         <v>DrawBezier</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>427</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>DrawCircle</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>428</v>
       </c>
@@ -13738,7 +13739,7 @@
         <v>DrawClearException</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>430</v>
       </c>
@@ -13760,7 +13761,7 @@
         <v>DrawColor</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>431</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>DrawComment</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>429</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>DrawComposite</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>432</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>DrawEllipse</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>470</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>DrawLine</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>471</v>
       </c>
@@ -13865,7 +13866,7 @@
         <v>DrawMatte</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>472</v>
       </c>
@@ -13882,7 +13883,7 @@
         <v>DrawPathClose</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>473</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>DrawPathCurveToAbsolute</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>475</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>DrawPathCurveToQuadraticBezierAbsolute</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>476</v>
       </c>
@@ -13933,7 +13934,7 @@
         <v>DrawPathCurveToQuadraticBezierRelative</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>477</v>
       </c>
@@ -13950,7 +13951,7 @@
         <v>DrawPathCurveToQuadraticBezierSmoothAbsolute</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>478</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>DrawPathCurveToQuadraticBezierSmoothRelative</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>474</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>DrawPathCurveToRelative</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>479</v>
       </c>
@@ -14001,7 +14002,7 @@
         <v>DrawPathCurveToSmoothAbsolute</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>480</v>
       </c>
@@ -14018,7 +14019,7 @@
         <v>DrawPathCurveToSmoothRelative</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>481</v>
       </c>
@@ -14035,7 +14036,7 @@
         <v>DrawPathEllipticArcAbsolute</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>482</v>
       </c>
@@ -14052,7 +14053,7 @@
         <v>DrawPathEllipticArcRelative</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>483</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>DrawPathFinish</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>484</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>DrawPathLineToAbsolute</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>486</v>
       </c>
@@ -14103,7 +14104,7 @@
         <v>DrawPathLineToHorizontalAbsolute</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>487</v>
       </c>
@@ -14120,7 +14121,7 @@
         <v>DrawPathLineToHorizontalRelative</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>485</v>
       </c>
@@ -14137,7 +14138,7 @@
         <v>DrawPathLineToRelative</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>488</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>DrawPathLineToVerticalAbsolute</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>489</v>
       </c>
@@ -14171,7 +14172,7 @@
         <v>DrawPathLineToVerticalRelative</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>490</v>
       </c>
@@ -14188,7 +14189,7 @@
         <v>DrawPathMoveToAbsolute</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>491</v>
       </c>
@@ -14205,7 +14206,7 @@
         <v>DrawPathMoveToRelative</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>492</v>
       </c>
@@ -14222,7 +14223,7 @@
         <v>DrawPathStart</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>493</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>DrawPoint</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>494</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>DrawPolygon</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>495</v>
       </c>
@@ -14273,7 +14274,7 @@
         <v>DrawPolyline</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>496</v>
       </c>
@@ -14290,7 +14291,7 @@
         <v>DrawPopClipPath</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>497</v>
       </c>
@@ -14307,7 +14308,7 @@
         <v>DrawPopDefs</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>498</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>DrawPopPattern</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>499</v>
       </c>
@@ -14341,7 +14342,7 @@
         <v>DrawPushClipPath</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>500</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>DrawPushDefs</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>501</v>
       </c>
@@ -14375,7 +14376,7 @@
         <v>DrawPushPattern</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>502</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>DrawRectangle</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>503</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>DrawResetVectorGraphics</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>504</v>
       </c>
@@ -14441,7 +14442,7 @@
         <v>DrawRotate</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>505</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>DrawRoundRectangle</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>506</v>
       </c>
@@ -14485,7 +14486,7 @@
         <v>DrawScale</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>544</v>
       </c>
@@ -14507,7 +14508,7 @@
         <v>DrawSkewX</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>545</v>
       </c>
@@ -14529,7 +14530,7 @@
         <v>DrawSkewY</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>546</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>DrawTranslate</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>437</v>
       </c>
@@ -14573,7 +14574,7 @@
         <v>Exception</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>438</v>
       </c>
@@ -14595,7 +14596,7 @@
         <v>ExceptionType</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>439</v>
       </c>
@@ -14617,7 +14618,7 @@
         <v>FillColor</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>511</v>
       </c>
@@ -14639,7 +14640,7 @@
         <v>FillColor</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>440</v>
       </c>
@@ -14661,7 +14662,7 @@
         <v>FillOpacity</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>512</v>
       </c>
@@ -14683,7 +14684,7 @@
         <v>FillOpacity</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>515</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>FillPatternURL</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>441</v>
       </c>
@@ -14717,7 +14718,7 @@
         <v>FillRule</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>516</v>
       </c>
@@ -14734,7 +14735,7 @@
         <v>FillRule</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>442</v>
       </c>
@@ -14756,7 +14757,7 @@
         <v>Font</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>517</v>
       </c>
@@ -14778,7 +14779,7 @@
         <v>Font</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>443</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>FontFamily</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>518</v>
       </c>
@@ -14822,7 +14823,7 @@
         <v>FontFamily</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>444</v>
       </c>
@@ -14844,7 +14845,7 @@
         <v>FontResolution</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>513</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>FontResolution</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>445</v>
       </c>
@@ -14888,7 +14889,7 @@
         <v>FontSize</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>519</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>FontSize</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>446</v>
       </c>
@@ -14932,7 +14933,7 @@
         <v>FontStretch</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>520</v>
       </c>
@@ -14954,7 +14955,7 @@
         <v>FontStretch</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>447</v>
       </c>
@@ -14976,7 +14977,7 @@
         <v>FontStyle</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>521</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>FontStyle</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>448</v>
       </c>
@@ -15020,7 +15021,7 @@
         <v>FontWeight</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>522</v>
       </c>
@@ -15042,7 +15043,7 @@
         <v>FontWeight</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>449</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>Gravity</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>523</v>
       </c>
@@ -15086,7 +15087,7 @@
         <v>Gravity</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>548</v>
       </c>
@@ -15103,7 +15104,7 @@
         <v>IsDrawingWand</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>549</v>
       </c>
@@ -15125,7 +15126,7 @@
         <v>NewDrawingWand</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>450</v>
       </c>
@@ -15147,7 +15148,7 @@
         <v>Opacity</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>514</v>
       </c>
@@ -15169,7 +15170,7 @@
         <v>Opacity</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>550</v>
       </c>
@@ -15186,7 +15187,7 @@
         <v>PeekDrawingWand</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>551</v>
       </c>
@@ -15203,7 +15204,7 @@
         <v>PopDrawingWand</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>552</v>
       </c>
@@ -15220,7 +15221,7 @@
         <v>PushDrawingWand</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>451</v>
       </c>
@@ -15242,7 +15243,7 @@
         <v>StrokeAntialias</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>526</v>
       </c>
@@ -15264,7 +15265,7 @@
         <v>StrokeAntialias</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>452</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>StrokeColor</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>524</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>StrokeColor</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>453</v>
       </c>
@@ -15325,7 +15326,7 @@
         <v>StrokeDashArray</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>527</v>
       </c>
@@ -15342,7 +15343,7 @@
         <v>StrokeDashArray</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>454</v>
       </c>
@@ -15359,7 +15360,7 @@
         <v>StrokeDashOffset</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>528</v>
       </c>
@@ -15376,7 +15377,7 @@
         <v>StrokeDashOffset</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>455</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>StrokeLineCap</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>529</v>
       </c>
@@ -15410,7 +15411,7 @@
         <v>StrokeLineCap</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>456</v>
       </c>
@@ -15427,7 +15428,7 @@
         <v>StrokeLineJoin</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>530</v>
       </c>
@@ -15444,7 +15445,7 @@
         <v>StrokeLineJoin</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>457</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>StrokeMiterLimit</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>531</v>
       </c>
@@ -15478,7 +15479,7 @@
         <v>StrokeMiterLimit</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>458</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>StrokeOpacity</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>532</v>
       </c>
@@ -15522,7 +15523,7 @@
         <v>StrokeOpacity</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>525</v>
       </c>
@@ -15539,7 +15540,7 @@
         <v>StrokePatternURL</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>459</v>
       </c>
@@ -15561,7 +15562,7 @@
         <v>StrokeWidth</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>533</v>
       </c>
@@ -15583,7 +15584,7 @@
         <v>StrokeWidth</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>460</v>
       </c>
@@ -15605,7 +15606,7 @@
         <v>TextAlignment</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>534</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>TextAlignment</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>461</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>TextAntialias</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="14">
         <v>535</v>
       </c>
@@ -15671,7 +15672,7 @@
         <v>TextAntialias</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>462</v>
       </c>
@@ -15688,7 +15689,7 @@
         <v>TextDecoration</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>536</v>
       </c>
@@ -15705,7 +15706,7 @@
         <v>TextDecoration</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>463</v>
       </c>
@@ -15722,7 +15723,7 @@
         <v>TextDirection</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>537</v>
       </c>
@@ -15739,7 +15740,7 @@
         <v>TextDirection</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="19" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" s="19" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>464</v>
       </c>
@@ -15756,7 +15757,7 @@
         <v>TextEncoding</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>538</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>TextEncoding</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>466</v>
       </c>
@@ -15790,7 +15791,7 @@
         <v>TextInterlineSpacing</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>540</v>
       </c>
@@ -15807,7 +15808,7 @@
         <v>TextInterlineSpacing</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>467</v>
       </c>
@@ -15824,7 +15825,7 @@
         <v>TextInterwordSpacing</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>541</v>
       </c>
@@ -15841,7 +15842,7 @@
         <v>TextInterwordSpacing</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>465</v>
       </c>
@@ -15858,7 +15859,7 @@
         <v>TextKerning</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>539</v>
       </c>
@@ -15875,7 +15876,7 @@
         <v>TextKerning</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
         <v>469</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>TextUnderColor</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>542</v>
       </c>
@@ -15919,7 +15920,7 @@
         <v>TextUnderColor</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>468</v>
       </c>
@@ -15941,7 +15942,7 @@
         <v>VectorGraphics</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>543</v>
       </c>
@@ -15963,7 +15964,7 @@
         <v>VectorGraphics</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>547</v>
       </c>
@@ -19397,10 +19398,15 @@
       <c r="B326" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C326" s="13" t="s">
+      <c r="C326" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D326" s="19"/>
+      <c r="D326" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E326" s="13" t="s">
+        <v>571</v>
+      </c>
       <c r="F326" s="17"/>
       <c r="G326" s="13" t="str">
         <f t="shared" ref="G326:G389" si="5">SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(C326,"PixelSet",""),"PixelGet",""),"DrawSet",""),"DrawGet",""),"MagickSet",""),"MagickGet","")</f>
@@ -20778,7 +20784,7 @@
         <v>Use MagickBrightnessContrastImage</v>
       </c>
     </row>
-    <row r="401" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="14">
         <v>28</v>
       </c>
@@ -20800,7 +20806,7 @@
         <v>Antialias</v>
       </c>
     </row>
-    <row r="402" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="14">
         <v>66</v>
       </c>
@@ -20822,7 +20828,7 @@
         <v>Antialias</v>
       </c>
     </row>
-    <row r="403" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="14">
         <v>29</v>
       </c>
@@ -20844,7 +20850,7 @@
         <v>BackgroundColor</v>
       </c>
     </row>
-    <row r="404" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="14">
         <v>67</v>
       </c>
@@ -20866,7 +20872,7 @@
         <v>BackgroundColor</v>
       </c>
     </row>
-    <row r="405" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="14">
         <v>30</v>
       </c>
@@ -20884,7 +20890,7 @@
         <v>Colorspace</v>
       </c>
     </row>
-    <row r="406" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="14">
         <v>68</v>
       </c>
@@ -20902,7 +20908,7 @@
         <v>Colorspace</v>
       </c>
     </row>
-    <row r="407" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="14">
         <v>31</v>
       </c>
@@ -20920,7 +20926,7 @@
         <v>Compression</v>
       </c>
     </row>
-    <row r="408" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="14">
         <v>69</v>
       </c>
@@ -20938,7 +20944,7 @@
         <v>Compression</v>
       </c>
     </row>
-    <row r="409" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="14">
         <v>32</v>
       </c>
@@ -20956,7 +20962,7 @@
         <v>CompressionQuality</v>
       </c>
     </row>
-    <row r="410" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="14">
         <v>70</v>
       </c>
@@ -20974,7 +20980,7 @@
         <v>CompressionQuality</v>
       </c>
     </row>
-    <row r="411" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="14">
         <v>33</v>
       </c>
@@ -20992,7 +20998,7 @@
         <v>Copyright</v>
       </c>
     </row>
-    <row r="412" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="14">
         <v>71</v>
       </c>
@@ -21010,7 +21016,7 @@
         <v>Depth</v>
       </c>
     </row>
-    <row r="413" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="14">
         <v>72</v>
       </c>
@@ -21028,7 +21034,7 @@
         <v>Extract</v>
       </c>
     </row>
-    <row r="414" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="14">
         <v>34</v>
       </c>
@@ -21046,7 +21052,7 @@
         <v>Filename</v>
       </c>
     </row>
-    <row r="415" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="14">
         <v>73</v>
       </c>
@@ -21064,7 +21070,7 @@
         <v>Filename</v>
       </c>
     </row>
-    <row r="416" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="14">
         <v>35</v>
       </c>
@@ -21086,7 +21092,7 @@
         <v>Font</v>
       </c>
     </row>
-    <row r="417" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="14">
         <v>74</v>
       </c>
@@ -21108,7 +21114,7 @@
         <v>Font</v>
       </c>
     </row>
-    <row r="418" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="14">
         <v>36</v>
       </c>
@@ -21126,7 +21132,7 @@
         <v>Format</v>
       </c>
     </row>
-    <row r="419" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="14">
         <v>75</v>
       </c>
@@ -21143,7 +21149,7 @@
         <v>Format</v>
       </c>
     </row>
-    <row r="420" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="14">
         <v>37</v>
       </c>
@@ -21165,7 +21171,7 @@
         <v>Gravity</v>
       </c>
     </row>
-    <row r="421" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="14">
         <v>76</v>
       </c>
@@ -21187,7 +21193,7 @@
         <v>Gravity</v>
       </c>
     </row>
-    <row r="422" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="14">
         <v>38</v>
       </c>
@@ -21205,7 +21211,7 @@
         <v>HomeURL</v>
       </c>
     </row>
-    <row r="423" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="14">
         <v>39</v>
       </c>
@@ -21223,7 +21229,7 @@
         <v>ImageArtifact</v>
       </c>
     </row>
-    <row r="424" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="14">
         <v>77</v>
       </c>
@@ -21240,7 +21246,7 @@
         <v>ImageArtifact</v>
       </c>
     </row>
-    <row r="425" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="14">
         <v>40</v>
       </c>
@@ -21258,7 +21264,7 @@
         <v>ImageArtifacts</v>
       </c>
     </row>
-    <row r="426" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="14">
         <v>41</v>
       </c>
@@ -21276,7 +21282,7 @@
         <v>ImageProfile</v>
       </c>
     </row>
-    <row r="427" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="14">
         <v>78</v>
       </c>
@@ -21293,7 +21299,7 @@
         <v>ImageProfile</v>
       </c>
     </row>
-    <row r="428" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="14">
         <v>42</v>
       </c>
@@ -21311,7 +21317,7 @@
         <v>ImageProfiles</v>
       </c>
     </row>
-    <row r="429" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="14">
         <v>44</v>
       </c>
@@ -21329,7 +21335,7 @@
         <v>ImageProperties</v>
       </c>
     </row>
-    <row r="430" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="14">
         <v>43</v>
       </c>
@@ -21347,7 +21353,7 @@
         <v>ImageProperty</v>
       </c>
     </row>
-    <row r="431" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="14">
         <v>79</v>
       </c>
@@ -21364,7 +21370,7 @@
         <v>ImageProperty</v>
       </c>
     </row>
-    <row r="432" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="14">
         <v>45</v>
       </c>
@@ -21382,7 +21388,7 @@
         <v>InterlaceScheme</v>
       </c>
     </row>
-    <row r="433" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="14">
         <v>80</v>
       </c>
@@ -21399,7 +21405,7 @@
         <v>InterlaceScheme</v>
       </c>
     </row>
-    <row r="434" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="14">
         <v>46</v>
       </c>
@@ -21417,7 +21423,7 @@
         <v>InterpolateMethod</v>
       </c>
     </row>
-    <row r="435" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="14">
         <v>81</v>
       </c>
@@ -21434,7 +21440,7 @@
         <v>InterpolateMethod</v>
       </c>
     </row>
-    <row r="436" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="14">
         <v>25</v>
       </c>
@@ -21451,7 +21457,7 @@
         <v>MagickDeleteImageArtifact</v>
       </c>
     </row>
-    <row r="437" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="14">
         <v>26</v>
       </c>
@@ -21468,7 +21474,7 @@
         <v>MagickDeleteImageProperty</v>
       </c>
     </row>
-    <row r="438" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="14">
         <v>27</v>
       </c>
@@ -21486,7 +21492,7 @@
         <v>MagickDeleteOption</v>
       </c>
     </row>
-    <row r="439" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="14">
         <v>64</v>
       </c>
@@ -21504,7 +21510,7 @@
         <v>MagickProfileImage</v>
       </c>
     </row>
-    <row r="440" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="14">
         <v>65</v>
       </c>
@@ -21522,7 +21528,7 @@
         <v>MagickRemoveImageProfile</v>
       </c>
     </row>
-    <row r="441" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="14">
         <v>47</v>
       </c>
@@ -21540,7 +21546,7 @@
         <v>Option</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="14">
         <v>82</v>
       </c>
@@ -21557,7 +21563,7 @@
         <v>Option</v>
       </c>
     </row>
-    <row r="443" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="14">
         <v>48</v>
       </c>
@@ -21575,7 +21581,7 @@
         <v>Options</v>
       </c>
     </row>
-    <row r="444" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="14">
         <v>49</v>
       </c>
@@ -21593,7 +21599,7 @@
         <v>Orientation</v>
       </c>
     </row>
-    <row r="445" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="14">
         <v>83</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>Orientation</v>
       </c>
     </row>
-    <row r="446" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="14">
         <v>50</v>
       </c>
@@ -21628,7 +21634,7 @@
         <v>PackageName</v>
       </c>
     </row>
-    <row r="447" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="14">
         <v>51</v>
       </c>
@@ -21650,7 +21656,7 @@
         <v>Page</v>
       </c>
     </row>
-    <row r="448" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="14">
         <v>84</v>
       </c>
@@ -21672,7 +21678,7 @@
         <v>Page</v>
       </c>
     </row>
-    <row r="449" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="14">
         <v>85</v>
       </c>
@@ -21689,7 +21695,7 @@
         <v>Passphrase</v>
       </c>
     </row>
-    <row r="450" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="14">
         <v>52</v>
       </c>
@@ -21711,7 +21717,7 @@
         <v>Pointsize</v>
       </c>
     </row>
-    <row r="451" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="14">
         <v>86</v>
       </c>
@@ -21733,7 +21739,7 @@
         <v>Pointsize</v>
       </c>
     </row>
-    <row r="452" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="14">
         <v>87</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v>ProgressMonitor</v>
       </c>
     </row>
-    <row r="453" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="14">
         <v>53</v>
       </c>
@@ -21770,7 +21776,7 @@
         <v>QuantumDepth</v>
       </c>
     </row>
-    <row r="454" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="14">
         <v>54</v>
       </c>
@@ -21788,7 +21794,7 @@
         <v>QuantumRange</v>
       </c>
     </row>
-    <row r="455" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" s="14">
         <v>55</v>
       </c>
@@ -21806,7 +21812,7 @@
         <v>ReleaseDate</v>
       </c>
     </row>
-    <row r="456" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="14">
         <v>56</v>
       </c>
@@ -21824,7 +21830,7 @@
         <v>Resolution</v>
       </c>
     </row>
-    <row r="457" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="14">
         <v>89</v>
       </c>
@@ -21841,7 +21847,7 @@
         <v>Resolution</v>
       </c>
     </row>
-    <row r="458" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="14">
         <v>57</v>
       </c>
@@ -21859,7 +21865,7 @@
         <v>Resource</v>
       </c>
     </row>
-    <row r="459" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="14">
         <v>58</v>
       </c>
@@ -21877,7 +21883,7 @@
         <v>ResourceLimit</v>
       </c>
     </row>
-    <row r="460" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="14">
         <v>88</v>
       </c>
@@ -21894,7 +21900,7 @@
         <v>ResourceLimit</v>
       </c>
     </row>
-    <row r="461" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="14">
         <v>59</v>
       </c>
@@ -21912,7 +21918,7 @@
         <v>SamplingFactors</v>
       </c>
     </row>
-    <row r="462" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="14">
         <v>90</v>
       </c>
@@ -21929,7 +21935,7 @@
         <v>SamplingFactors</v>
       </c>
     </row>
-    <row r="463" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="14">
         <v>60</v>
       </c>
@@ -21951,7 +21957,7 @@
         <v>Size</v>
       </c>
     </row>
-    <row r="464" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="14">
         <v>91</v>
       </c>
@@ -21973,7 +21979,7 @@
         <v>Size</v>
       </c>
     </row>
-    <row r="465" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="14">
         <v>61</v>
       </c>
@@ -21991,7 +21997,7 @@
         <v>SizeOffset</v>
       </c>
     </row>
-    <row r="466" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="14">
         <v>92</v>
       </c>
@@ -22009,7 +22015,7 @@
         <v>SizeOffset</v>
       </c>
     </row>
-    <row r="467" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="14">
         <v>62</v>
       </c>
@@ -22027,7 +22033,7 @@
         <v>Type</v>
       </c>
     </row>
-    <row r="468" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="14">
         <v>93</v>
       </c>
@@ -22045,7 +22051,7 @@
         <v>Type</v>
       </c>
     </row>
-    <row r="469" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="14">
         <v>63</v>
       </c>
@@ -22069,7 +22075,7 @@
         <v>Version</v>
       </c>
     </row>
-    <row r="470" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="14">
         <v>1</v>
       </c>
@@ -22093,7 +22099,7 @@
         <v>ClearMagickWand</v>
       </c>
     </row>
-    <row r="471" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="14">
         <v>2</v>
       </c>
@@ -22115,7 +22121,7 @@
         <v>CloneMagickWand</v>
       </c>
     </row>
-    <row r="472" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="14">
         <v>3</v>
       </c>
@@ -22139,7 +22145,7 @@
         <v>DestroyMagickWand</v>
       </c>
     </row>
-    <row r="473" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="14">
         <v>6</v>
       </c>
@@ -22163,7 +22169,7 @@
         <v>Exception</v>
       </c>
     </row>
-    <row r="474" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="14">
         <v>7</v>
       </c>
@@ -22187,7 +22193,7 @@
         <v>ExceptionType</v>
       </c>
     </row>
-    <row r="475" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="14">
         <v>17</v>
       </c>
@@ -22209,7 +22215,7 @@
         <v>FirstIterator</v>
       </c>
     </row>
-    <row r="476" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="14">
         <v>4</v>
       </c>
@@ -22233,7 +22239,7 @@
         <v>IsMagickWand</v>
       </c>
     </row>
-    <row r="477" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="14">
         <v>24</v>
       </c>
@@ -22257,7 +22263,7 @@
         <v>IsMagickWandInstantiated</v>
       </c>
     </row>
-    <row r="478" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="14">
         <v>8</v>
       </c>
@@ -22279,7 +22285,7 @@
         <v>IteratorIndex</v>
       </c>
     </row>
-    <row r="479" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="14">
         <v>18</v>
       </c>
@@ -22301,7 +22307,7 @@
         <v>IteratorIndex</v>
       </c>
     </row>
-    <row r="480" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="14">
         <v>19</v>
       </c>
@@ -22323,7 +22329,7 @@
         <v>LastIterator</v>
       </c>
     </row>
-    <row r="481" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="14">
         <v>5</v>
       </c>
@@ -22347,7 +22353,7 @@
         <v>MagickClearException</v>
       </c>
     </row>
-    <row r="482" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="14">
         <v>9</v>
       </c>
@@ -22364,7 +22370,7 @@
         <v>MagickQueryConfigureOption</v>
       </c>
     </row>
-    <row r="483" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="14">
         <v>10</v>
       </c>
@@ -22381,7 +22387,7 @@
         <v>MagickQueryConfigureOptions</v>
       </c>
     </row>
-    <row r="484" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="14">
         <v>11</v>
       </c>
@@ -22398,7 +22404,7 @@
         <v>MagickQueryFontMetrics</v>
       </c>
     </row>
-    <row r="485" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="14">
         <v>13</v>
       </c>
@@ -22415,7 +22421,7 @@
         <v>MagickQueryFonts</v>
       </c>
     </row>
-    <row r="486" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="14">
         <v>14</v>
       </c>
@@ -22432,7 +22438,7 @@
         <v>MagickQueryFormats</v>
       </c>
     </row>
-    <row r="487" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="14">
         <v>12</v>
       </c>
@@ -22449,7 +22455,7 @@
         <v>MagickQueryMultilineFontMetrics</v>
       </c>
     </row>
-    <row r="488" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="14">
         <v>15</v>
       </c>
@@ -22473,7 +22479,7 @@
         <v>MagickRelinquishMemory</v>
       </c>
     </row>
-    <row r="489" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="14">
         <v>16</v>
       </c>
@@ -22495,7 +22501,7 @@
         <v>MagickResetIterator</v>
       </c>
     </row>
-    <row r="490" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="14">
         <v>20</v>
       </c>
@@ -22519,7 +22525,7 @@
         <v>MagickWandGenesis</v>
       </c>
     </row>
-    <row r="491" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="14">
         <v>21</v>
       </c>
@@ -22543,7 +22549,7 @@
         <v>MagickWandTerminus</v>
       </c>
     </row>
-    <row r="492" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="14">
         <v>22</v>
       </c>
@@ -22565,7 +22571,7 @@
         <v>NewMagickWand</v>
       </c>
     </row>
-    <row r="493" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="14">
         <v>23</v>
       </c>
@@ -22582,7 +22588,7 @@
         <v>NewMagickWandFromImage</v>
       </c>
     </row>
-    <row r="494" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="14">
         <v>571</v>
       </c>
@@ -22604,7 +22610,7 @@
         <v>MagickCommandGenesis</v>
       </c>
     </row>
-    <row r="495" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" s="14">
         <v>553</v>
       </c>
@@ -22626,7 +22632,7 @@
         <v>ClearPixelIterator</v>
       </c>
     </row>
-    <row r="496" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="14">
         <v>554</v>
       </c>
@@ -22648,7 +22654,7 @@
         <v>ClonePixelIterator</v>
       </c>
     </row>
-    <row r="497" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="14">
         <v>560</v>
       </c>
@@ -22670,7 +22676,7 @@
         <v>CurrentIteratorRow</v>
       </c>
     </row>
-    <row r="498" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="14">
         <v>555</v>
       </c>
@@ -22692,7 +22698,7 @@
         <v>DestroyPixelIterator</v>
       </c>
     </row>
-    <row r="499" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="14">
         <v>567</v>
       </c>
@@ -22714,7 +22720,7 @@
         <v>FirstIteratorRow</v>
       </c>
     </row>
-    <row r="500" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="14">
         <v>556</v>
       </c>
@@ -22736,7 +22742,7 @@
         <v>IsPixelIterator</v>
       </c>
     </row>
-    <row r="501" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="14">
         <v>561</v>
       </c>
@@ -22758,7 +22764,7 @@
         <v>IteratorException</v>
       </c>
     </row>
-    <row r="502" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="14">
         <v>562</v>
       </c>
@@ -22780,7 +22786,7 @@
         <v>IteratorExceptionType</v>
       </c>
     </row>
-    <row r="503" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="14">
         <v>563</v>
       </c>
@@ -22802,7 +22808,7 @@
         <v>IteratorRow</v>
       </c>
     </row>
-    <row r="504" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="14">
         <v>568</v>
       </c>
@@ -22824,7 +22830,7 @@
         <v>IteratorRow</v>
       </c>
     </row>
-    <row r="505" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="14">
         <v>569</v>
       </c>
@@ -22846,7 +22852,7 @@
         <v>LastIteratorRow</v>
       </c>
     </row>
-    <row r="506" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="14">
         <v>557</v>
       </c>
@@ -22868,7 +22874,7 @@
         <v>NewPixelIterator</v>
       </c>
     </row>
-    <row r="507" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="14">
         <v>559</v>
       </c>
@@ -22890,7 +22896,7 @@
         <v>NewPixelRegionIterator</v>
       </c>
     </row>
-    <row r="508" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="14">
         <v>564</v>
       </c>
@@ -22912,7 +22918,7 @@
         <v>NextIteratorRow</v>
       </c>
     </row>
-    <row r="509" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="14">
         <v>558</v>
       </c>
@@ -22934,7 +22940,7 @@
         <v>PixelClearIteratorException</v>
       </c>
     </row>
-    <row r="510" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="14">
         <v>566</v>
       </c>
@@ -22956,7 +22962,7 @@
         <v>PixelResetIterator</v>
       </c>
     </row>
-    <row r="511" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="14">
         <v>570</v>
       </c>
@@ -22978,7 +22984,7 @@
         <v>PixelSyncIterator</v>
       </c>
     </row>
-    <row r="512" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="14">
         <v>565</v>
       </c>
@@ -23000,7 +23006,7 @@
         <v>PreviousIteratorRow</v>
       </c>
     </row>
-    <row r="513" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="14">
         <v>366</v>
       </c>
@@ -23022,7 +23028,7 @@
         <v>Alpha</v>
       </c>
     </row>
-    <row r="514" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" s="14">
         <v>394</v>
       </c>
@@ -23044,7 +23050,7 @@
         <v>Alpha</v>
       </c>
     </row>
-    <row r="515" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="14">
         <v>367</v>
       </c>
@@ -23061,7 +23067,7 @@
         <v>AlphaQuantum</v>
       </c>
     </row>
-    <row r="516" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="14">
         <v>395</v>
       </c>
@@ -23078,7 +23084,7 @@
         <v>AlphaQuantum</v>
       </c>
     </row>
-    <row r="517" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="14">
         <v>368</v>
       </c>
@@ -23095,7 +23101,7 @@
         <v>Black</v>
       </c>
     </row>
-    <row r="518" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="14">
         <v>396</v>
       </c>
@@ -23112,7 +23118,7 @@
         <v>Black</v>
       </c>
     </row>
-    <row r="519" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="14">
         <v>369</v>
       </c>
@@ -23129,7 +23135,7 @@
         <v>BlackQuantum</v>
       </c>
     </row>
-    <row r="520" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="14">
         <v>397</v>
       </c>
@@ -23146,7 +23152,7 @@
         <v>BlackQuantum</v>
       </c>
     </row>
-    <row r="521" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="14">
         <v>370</v>
       </c>
@@ -23168,7 +23174,7 @@
         <v>Blue</v>
       </c>
     </row>
-    <row r="522" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="14">
         <v>398</v>
       </c>
@@ -23190,7 +23196,7 @@
         <v>Blue</v>
       </c>
     </row>
-    <row r="523" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="14">
         <v>371</v>
       </c>
@@ -23207,7 +23213,7 @@
         <v>BlueQuantum</v>
       </c>
     </row>
-    <row r="524" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="14">
         <v>399</v>
       </c>
@@ -23224,7 +23230,7 @@
         <v>BlueQuantum</v>
       </c>
     </row>
-    <row r="525" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="14">
         <v>356</v>
       </c>
@@ -23246,7 +23252,7 @@
         <v>ClearPixelWand</v>
       </c>
     </row>
-    <row r="526" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="14">
         <v>357</v>
       </c>
@@ -23268,7 +23274,7 @@
         <v>ClonePixelWand</v>
       </c>
     </row>
-    <row r="527" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="14">
         <v>358</v>
       </c>
@@ -23285,7 +23291,7 @@
         <v>ClonePixelWands</v>
       </c>
     </row>
-    <row r="528" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="14">
         <v>400</v>
       </c>
@@ -23307,7 +23313,7 @@
         <v>Color</v>
       </c>
     </row>
-    <row r="529" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="14">
         <v>373</v>
       </c>
@@ -23329,7 +23335,7 @@
         <v>ColorAsNormalizedString</v>
       </c>
     </row>
-    <row r="530" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="14">
         <v>372</v>
       </c>
@@ -23351,7 +23357,7 @@
         <v>ColorAsString</v>
       </c>
     </row>
-    <row r="531" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="14">
         <v>374</v>
       </c>
@@ -23368,7 +23374,7 @@
         <v>ColorCount</v>
       </c>
     </row>
-    <row r="532" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="14">
         <v>401</v>
       </c>
@@ -23385,7 +23391,7 @@
         <v>ColorCount</v>
       </c>
     </row>
-    <row r="533" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="14">
         <v>402</v>
       </c>
@@ -23402,7 +23408,7 @@
         <v>ColorFromWand</v>
       </c>
     </row>
-    <row r="534" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" s="14">
         <v>375</v>
       </c>
@@ -23419,7 +23425,7 @@
         <v>Cyan</v>
       </c>
     </row>
-    <row r="535" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="14">
         <v>403</v>
       </c>
@@ -23436,7 +23442,7 @@
         <v>Cyan</v>
       </c>
     </row>
-    <row r="536" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="14">
         <v>376</v>
       </c>
@@ -23453,7 +23459,7 @@
         <v>CyanQuantum</v>
       </c>
     </row>
-    <row r="537" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="14">
         <v>404</v>
       </c>
@@ -23470,7 +23476,7 @@
         <v>CyanQuantum</v>
       </c>
     </row>
-    <row r="538" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="14">
         <v>359</v>
       </c>
@@ -23487,7 +23493,7 @@
         <v>DestroyPixelWand</v>
       </c>
     </row>
-    <row r="539" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="14">
         <v>360</v>
       </c>
@@ -23509,7 +23515,7 @@
         <v>DestroyPixelWands</v>
       </c>
     </row>
-    <row r="540" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="14">
         <v>377</v>
       </c>
@@ -23531,7 +23537,7 @@
         <v>Exception</v>
       </c>
     </row>
-    <row r="541" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="14">
         <v>378</v>
       </c>
@@ -23553,7 +23559,7 @@
         <v>ExceptionType</v>
       </c>
     </row>
-    <row r="542" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="14">
         <v>379</v>
       </c>
@@ -23570,7 +23576,7 @@
         <v>Fuzz</v>
       </c>
     </row>
-    <row r="543" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="14">
         <v>405</v>
       </c>
@@ -23587,7 +23593,7 @@
         <v>Fuzz</v>
       </c>
     </row>
-    <row r="544" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="14">
         <v>380</v>
       </c>
@@ -23609,7 +23615,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="545" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="14">
         <v>406</v>
       </c>
@@ -23631,7 +23637,7 @@
         <v>Green</v>
       </c>
     </row>
-    <row r="546" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="14">
         <v>381</v>
       </c>
@@ -23648,7 +23654,7 @@
         <v>GreenQuantum</v>
       </c>
     </row>
-    <row r="547" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="14">
         <v>407</v>
       </c>
@@ -23665,7 +23671,7 @@
         <v>GreenQuantum</v>
       </c>
     </row>
-    <row r="548" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="14">
         <v>382</v>
       </c>
@@ -23682,7 +23688,7 @@
         <v>HSL</v>
       </c>
     </row>
-    <row r="549" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="14">
         <v>408</v>
       </c>
@@ -23699,7 +23705,7 @@
         <v>HSL</v>
       </c>
     </row>
-    <row r="550" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="14">
         <v>383</v>
       </c>
@@ -23716,7 +23722,7 @@
         <v>Index</v>
       </c>
     </row>
-    <row r="551" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="14">
         <v>409</v>
       </c>
@@ -23733,7 +23739,7 @@
         <v>Index</v>
       </c>
     </row>
-    <row r="552" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="14">
         <v>362</v>
       </c>
@@ -23750,7 +23756,7 @@
         <v>IsPixelWand</v>
       </c>
     </row>
-    <row r="553" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="14">
         <v>361</v>
       </c>
@@ -23767,7 +23773,7 @@
         <v>IsPixelWandSimilar</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" s="14">
         <v>384</v>
       </c>
@@ -23784,7 +23790,7 @@
         <v>Magenta</v>
       </c>
     </row>
-    <row r="555" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="14">
         <v>410</v>
       </c>
@@ -23801,7 +23807,7 @@
         <v>Magenta</v>
       </c>
     </row>
-    <row r="556" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="14">
         <v>385</v>
       </c>
@@ -23818,7 +23824,7 @@
         <v>MagentaQuantum</v>
       </c>
     </row>
-    <row r="557" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="14">
         <v>411</v>
       </c>
@@ -23835,7 +23841,7 @@
         <v>MagentaQuantum</v>
       </c>
     </row>
-    <row r="558" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="14">
         <v>386</v>
       </c>
@@ -23852,7 +23858,7 @@
         <v>MagickColor</v>
       </c>
     </row>
-    <row r="559" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="14">
         <v>412</v>
       </c>
@@ -23869,7 +23875,7 @@
         <v>MagickColor</v>
       </c>
     </row>
-    <row r="560" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="14">
         <v>363</v>
       </c>
@@ -23891,7 +23897,7 @@
         <v>NewPixelWand</v>
       </c>
     </row>
-    <row r="561" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="14">
         <v>364</v>
       </c>
@@ -23908,7 +23914,7 @@
         <v>NewPixelWands</v>
       </c>
     </row>
-    <row r="562" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="14">
         <v>387</v>
       </c>
@@ -23930,7 +23936,7 @@
         <v>Opacity</v>
       </c>
     </row>
-    <row r="563" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="14">
         <v>413</v>
       </c>
@@ -23952,7 +23958,7 @@
         <v>Opacity</v>
       </c>
     </row>
-    <row r="564" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="14">
         <v>388</v>
       </c>
@@ -23969,7 +23975,7 @@
         <v>OpacityQuantum</v>
       </c>
     </row>
-    <row r="565" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="14">
         <v>414</v>
       </c>
@@ -23986,7 +23992,7 @@
         <v>OpacityQuantum</v>
       </c>
     </row>
-    <row r="566" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="14">
         <v>365</v>
       </c>
@@ -24005,7 +24011,7 @@
         <v>PixelClearException</v>
       </c>
     </row>
-    <row r="567" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="14">
         <v>389</v>
       </c>
@@ -24022,7 +24028,7 @@
         <v>QuantumColor</v>
       </c>
     </row>
-    <row r="568" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="14">
         <v>415</v>
       </c>
@@ -24039,7 +24045,7 @@
         <v>QuantumColor</v>
       </c>
     </row>
-    <row r="569" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="14">
         <v>390</v>
       </c>
@@ -24061,7 +24067,7 @@
         <v>Red</v>
       </c>
     </row>
-    <row r="570" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="14">
         <v>416</v>
       </c>
@@ -24083,7 +24089,7 @@
         <v>Red</v>
       </c>
     </row>
-    <row r="571" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="14">
         <v>391</v>
       </c>
@@ -24100,7 +24106,7 @@
         <v>RedQuantum</v>
       </c>
     </row>
-    <row r="572" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="14">
         <v>417</v>
       </c>
@@ -24117,7 +24123,7 @@
         <v>RedQuantum</v>
       </c>
     </row>
-    <row r="573" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="14">
         <v>392</v>
       </c>
@@ -24134,7 +24140,7 @@
         <v>Yellow</v>
       </c>
     </row>
-    <row r="574" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" s="14">
         <v>418</v>
       </c>
@@ -24151,7 +24157,7 @@
         <v>Yellow</v>
       </c>
     </row>
-    <row r="575" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="14">
         <v>393</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>YellowQuantum</v>
       </c>
     </row>
-    <row r="576" spans="1:7" s="13" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" s="13" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="14">
         <v>419</v>
       </c>
@@ -24201,7 +24207,13 @@
       <c r="F579" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:G576"/>
+  <autoFilter ref="A5:G576">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Module magick-image Methods"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A6:G576">
     <sortCondition ref="B6:B576"/>
     <sortCondition ref="G6:G576"/>

--- a/ImageMagickSharp/ImageMagickCommands.xlsx
+++ b/ImageMagickSharp/ImageMagickCommands.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4259" uniqueCount="2710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4269" uniqueCount="2710">
   <si>
     <t>ClearMagickWand</t>
   </si>
@@ -13341,8 +13341,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A508" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C334" sqref="C334"/>
+      <pane ySplit="5" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142:E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16049,10 +16049,15 @@
       <c r="B142" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D142" s="19"/>
+      <c r="D142" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>570</v>
+      </c>
       <c r="F142" s="17"/>
       <c r="G142" s="13" t="str">
         <f t="shared" si="2"/>
@@ -16066,10 +16071,15 @@
       <c r="B143" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D143" s="19"/>
+      <c r="D143" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>570</v>
+      </c>
       <c r="F143" s="17"/>
       <c r="G143" s="13" t="str">
         <f t="shared" si="2"/>
@@ -16413,10 +16423,15 @@
       <c r="B162" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D162" s="19"/>
+      <c r="D162" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E162" s="13" t="s">
+        <v>571</v>
+      </c>
       <c r="F162" s="17"/>
       <c r="G162" s="13" t="str">
         <f t="shared" si="2"/>
@@ -16430,10 +16445,15 @@
       <c r="B163" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D163" s="19"/>
+      <c r="D163" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E163" s="13" t="s">
+        <v>571</v>
+      </c>
       <c r="F163" s="17"/>
       <c r="G163" s="13" t="str">
         <f t="shared" si="2"/>
@@ -19380,10 +19400,15 @@
       <c r="B325" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C325" s="13" t="s">
+      <c r="C325" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D325" s="19"/>
+      <c r="D325" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="E325" s="13" t="s">
+        <v>571</v>
+      </c>
       <c r="F325" s="17"/>
       <c r="G325" s="13" t="str">
         <f t="shared" si="4"/>

--- a/ImageMagickSharp/ImageMagickCommands.xlsx
+++ b/ImageMagickSharp/ImageMagickCommands.xlsx
@@ -13341,8 +13341,8 @@
   <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142:E143"/>
+      <pane ySplit="5" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18685,7 +18685,7 @@
       <c r="B286" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C286" s="13" t="s">
+      <c r="C286" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D286" s="19"/>
